--- a/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19440" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
     <sheet name="5x5" sheetId="2" r:id="rId2"/>
-    <sheet name="rand" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="4x4 with Q" sheetId="4" r:id="rId3"/>
+    <sheet name="5x5 with Q" sheetId="5" r:id="rId4"/>
+    <sheet name="rand" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>#1</t>
   </si>
@@ -56,6 +57,21 @@
   </si>
   <si>
     <t>#6</t>
+  </si>
+  <si>
+    <t>Q1=</t>
+  </si>
+  <si>
+    <t>Q2=</t>
+  </si>
+  <si>
+    <t>#100</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -397,7 +413,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:P1"/>
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +992,7 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="I38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1155,7 @@
         <v>0.50844662682015018</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W7" si="4">-2*Q4</f>
+        <f t="shared" ref="W4:W6" si="4">-2*Q4</f>
         <v>-5.6883654049224873E-2</v>
       </c>
     </row>
@@ -1191,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T4:T7" si="7">-2*N5</f>
+        <f t="shared" ref="T5:T7" si="7">-2*N5</f>
         <v>0.85747975087676331</v>
       </c>
       <c r="U5">
@@ -2409,10 +2425,2610 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.2214681013552422</v>
+      </c>
+      <c r="B3">
+        <v>9.2617969355540666</v>
+      </c>
+      <c r="C3">
+        <v>21.272492188956534</v>
+      </c>
+      <c r="D3">
+        <v>49.983676211369669</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-9.2332510952473115</v>
+      </c>
+      <c r="B4">
+        <v>-0.64847026417982079</v>
+      </c>
+      <c r="C4">
+        <v>43.291309749893159</v>
+      </c>
+      <c r="D4">
+        <v>32.726126150883246</v>
+      </c>
+      <c r="F4">
+        <f>A4</f>
+        <v>-9.2332510952473115</v>
+      </c>
+      <c r="G4">
+        <f>SQRT(SUMPRODUCT(F4:F6,F4:F6))</f>
+        <v>56.737653850603309</v>
+      </c>
+      <c r="H4">
+        <f>F4-G4</f>
+        <v>-65.97090494585062</v>
+      </c>
+      <c r="I4">
+        <f>SQRT(SUMPRODUCT(H4:H6,H4:H6))</f>
+        <v>86.522070814662385</v>
+      </c>
+      <c r="J4">
+        <f>H4/I$4</f>
+        <v>-0.76247487288146276</v>
+      </c>
+      <c r="L4">
+        <f t="array" ref="L4:N6">MMULT(J4:J6,TRANSPOSE(J4:J6))</f>
+        <v>0.58136793177560275</v>
+      </c>
+      <c r="M4">
+        <v>-0.42857056578830122</v>
+      </c>
+      <c r="N4">
+        <v>0.24434919647597828</v>
+      </c>
+      <c r="P4">
+        <f>1-2*L4</f>
+        <v>-0.16273586355120551</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:R5" si="0">-2*M4</f>
+        <v>0.85714113157660243</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>-0.48869839295195655</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>P4</f>
+        <v>-0.16273586355120551</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:W4" si="1">Q4</f>
+        <v>0.85714113157660243</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>-0.48869839295195655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>48.632176824507695</v>
+      </c>
+      <c r="B5">
+        <v>-2.0205016643365923</v>
+      </c>
+      <c r="C5">
+        <v>29.031796815142997</v>
+      </c>
+      <c r="D5">
+        <v>34.530427248973197</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="2">A5</f>
+        <v>48.632176824507695</v>
+      </c>
+      <c r="H5">
+        <f>F5</f>
+        <v>48.632176824507695</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="3">H5/I$4</f>
+        <v>0.56207828091264644</v>
+      </c>
+      <c r="L5">
+        <v>-0.42857056578830122</v>
+      </c>
+      <c r="M5">
+        <v>0.3159319938737159</v>
+      </c>
+      <c r="N5">
+        <v>-0.1801283965969542</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:Q6" si="4">-2*L5</f>
+        <v>0.85714113157660243</v>
+      </c>
+      <c r="Q5">
+        <f>1-2*M5</f>
+        <v>0.3681360122525682</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.36025679319390841</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U6" si="5">P5</f>
+        <v>0.85714113157660243</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V6" si="6">Q5</f>
+        <v>0.3681360122525682</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W6" si="7">R5</f>
+        <v>0.36025679319390841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-27.727600256654227</v>
+      </c>
+      <c r="B6">
+        <v>5.5285488500541362</v>
+      </c>
+      <c r="C6">
+        <v>-28.922664172953738</v>
+      </c>
+      <c r="D6">
+        <v>-24.129763631572231</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-27.727600256654227</v>
+      </c>
+      <c r="H6">
+        <f>F6</f>
+        <v>-27.727600256654227</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-0.32046852318235769</v>
+      </c>
+      <c r="L6">
+        <v>0.24434919647597828</v>
+      </c>
+      <c r="M6">
+        <v>-0.1801283965969542</v>
+      </c>
+      <c r="N6">
+        <v>0.10270007435068133</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>-0.48869839295195655</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0.36025679319390841</v>
+      </c>
+      <c r="R6">
+        <f>1-2*N6</f>
+        <v>0.79459985129863731</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>-0.48869839295195655</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>0.36025679319390841</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>0.79459985129863731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A3</f>
+        <v>3.2214681013552422</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:D10" si="8">B3</f>
+        <v>9.2617969355540666</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>21.272492188956534</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="8"/>
+        <v>49.983676211369669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="array" ref="A11:D13">MMULT(P4:R6,A4:D6)</f>
+        <v>56.737653850603309</v>
+      </c>
+      <c r="B11">
+        <v>-4.3281186528711375</v>
+      </c>
+      <c r="C11">
+        <v>31.973757998633708</v>
+      </c>
+      <c r="D11">
+        <v>36.063911795218672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1.7763568394002505E-15</v>
+      </c>
+      <c r="B12">
+        <v>0.69204731824495291</v>
+      </c>
+      <c r="C12">
+        <v>37.374825888937515</v>
+      </c>
+      <c r="D12">
+        <v>32.069891323463906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>3.9819910198952231</v>
+      </c>
+      <c r="C13">
+        <v>-33.679436133267082</v>
+      </c>
+      <c r="D13">
+        <v>-22.726890862667567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A10</f>
+        <v>3.2214681013552422</v>
+      </c>
+      <c r="B17">
+        <f t="array" ref="B17:D20">MMULT(B10:D13,P4:R6)</f>
+        <v>-7.7006407343739554</v>
+      </c>
+      <c r="C17">
+        <v>33.776796454840564</v>
+      </c>
+      <c r="D17">
+        <v>42.854356225896893</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:A20" si="9">A11</f>
+        <v>56.737653850603309</v>
+      </c>
+      <c r="B18">
+        <v>10.485987500347932</v>
+      </c>
+      <c r="C18">
+        <v>21.05315245999935</v>
+      </c>
+      <c r="D18">
+        <v>42.290287102837297</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="9"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+      <c r="B19">
+        <v>16.250375285048804</v>
+      </c>
+      <c r="C19">
+        <v>25.90559778912079</v>
+      </c>
+      <c r="D19">
+        <v>38.609063385444159</v>
+      </c>
+      <c r="F19">
+        <f>B19</f>
+        <v>16.250375285048804</v>
+      </c>
+      <c r="G19">
+        <f>SQRT(SUMPRODUCT(F19:F20,F19:F20))</f>
+        <v>24.555701205060245</v>
+      </c>
+      <c r="H19">
+        <f>F19+G19</f>
+        <v>40.806076490109049</v>
+      </c>
+      <c r="I19">
+        <f>SQRT(SUMPRODUCT(H19:H20,H19:H20))</f>
+        <v>44.766546028076618</v>
+      </c>
+      <c r="J19">
+        <f>H19/I$19</f>
+        <v>0.91153059841865736</v>
+      </c>
+      <c r="L19">
+        <f t="array" ref="L19:M20">MMULT(J19:J20,TRANSPOSE(J19:J20))</f>
+        <v>0.83088803185347559</v>
+      </c>
+      <c r="M19">
+        <v>-0.37485078414768369</v>
+      </c>
+      <c r="P19">
+        <f>1-2*L19</f>
+        <v>-0.66177606370695119</v>
+      </c>
+      <c r="Q19">
+        <f>-2*M19</f>
+        <v>0.74970156829536738</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>P19</f>
+        <v>-0.66177606370695119</v>
+      </c>
+      <c r="W19">
+        <f>Q19</f>
+        <v>0.74970156829536738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>-18.409447704026107</v>
+      </c>
+      <c r="C20">
+        <v>-17.173001845747692</v>
+      </c>
+      <c r="D20">
+        <v>-32.138022370077771</v>
+      </c>
+      <c r="F20">
+        <f>B20</f>
+        <v>-18.409447704026107</v>
+      </c>
+      <c r="H20">
+        <f>F20</f>
+        <v>-18.409447704026107</v>
+      </c>
+      <c r="J20">
+        <f>H20/I$19</f>
+        <v>-0.41123225572238914</v>
+      </c>
+      <c r="L20">
+        <v>-0.37485078414768369</v>
+      </c>
+      <c r="M20">
+        <v>0.16911196814652446</v>
+      </c>
+      <c r="P20">
+        <f>-2*L20</f>
+        <v>0.74970156829536738</v>
+      </c>
+      <c r="Q20">
+        <f>1-2*M20</f>
+        <v>0.66177606370695108</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>P20</f>
+        <v>0.74970156829536738</v>
+      </c>
+      <c r="W20">
+        <f>Q20</f>
+        <v>0.66177606370695108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A17</f>
+        <v>3.2214681013552422</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:D24" si="10">B17</f>
+        <v>-7.7006407343739554</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="10"/>
+        <v>33.776796454840564</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="10"/>
+        <v>42.854356225896893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:D25" si="11">A18</f>
+        <v>56.737653850603309</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="11"/>
+        <v>10.485987500347932</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="11"/>
+        <v>21.05315245999935</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="11"/>
+        <v>42.290287102837297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="array" ref="A26:D27">MMULT(P19:Q20,A19:D20)</f>
+        <v>1.1755504369172186E-15</v>
+      </c>
+      <c r="B26">
+        <v>-24.555701205060245</v>
+      </c>
+      <c r="C26">
+        <v>-30.018330948956137</v>
+      </c>
+      <c r="D26">
+        <v>-49.644479763390315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1.3317375083505698E-15</v>
+      </c>
+      <c r="B27">
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="C27">
+        <v>8.0567857266217473</v>
+      </c>
+      <c r="D27">
+        <v>7.6771014310867258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A24</f>
+        <v>3.2214681013552422</v>
+      </c>
+      <c r="B31">
+        <f>B24</f>
+        <v>-7.7006407343739554</v>
+      </c>
+      <c r="C31">
+        <f t="array" ref="C31:D34">MMULT(C24:D27,P19:Q20)</f>
+        <v>9.7753026683279494</v>
+      </c>
+      <c r="D31">
+        <v>53.682504450056896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ref="A32:B34" si="12">A25</f>
+        <v>56.737653850603309</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>10.485987500347932</v>
+      </c>
+      <c r="C32">
+        <v>17.772622201057786</v>
+      </c>
+      <c r="D32">
+        <v>43.770281148775489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="12"/>
+        <v>1.1755504369172186E-15</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="12"/>
+        <v>-24.555701205060245</v>
+      </c>
+      <c r="C33">
+        <v>-17.353131441368607</v>
+      </c>
+      <c r="D33">
+        <v>-55.358318192637611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="12"/>
+        <v>-1.3317375083505698E-15</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="12"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="C34">
+        <v>0.42374703855423945</v>
+      </c>
+      <c r="D34">
+        <v>11.12070686041163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="array" ref="A38:D41">MMULT(T3:W6,T17:W20)</f>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="array" ref="F38:I41">MMULT(MMULT(A38:D41,A31:D34),TRANSPOSE(A38:D41))</f>
+        <v>3.2214681013552422</v>
+      </c>
+      <c r="G38">
+        <v>9.2617969355540684</v>
+      </c>
+      <c r="H38">
+        <v>21.272492188956534</v>
+      </c>
+      <c r="I38">
+        <v>49.983676211369662</v>
+      </c>
+      <c r="K38">
+        <f>F38-A3</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:N38" si="13">G38-B3</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>-0.16273586355120551</v>
+      </c>
+      <c r="C39">
+        <v>-0.93361343571559341</v>
+      </c>
+      <c r="D39">
+        <v>0.31919115176578611</v>
+      </c>
+      <c r="F39">
+        <v>-9.2332510952473115</v>
+      </c>
+      <c r="G39">
+        <v>-0.64847026417982079</v>
+      </c>
+      <c r="H39">
+        <v>43.291309749893159</v>
+      </c>
+      <c r="I39">
+        <v>32.726126150883246</v>
+      </c>
+      <c r="K39">
+        <f>F39-A4</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>G39-B4</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f>H39-C4</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>I39-D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.85714113157660243</v>
+      </c>
+      <c r="C40">
+        <v>2.6461481749254445E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.51440146825530675</v>
+      </c>
+      <c r="F40">
+        <v>48.632176824507695</v>
+      </c>
+      <c r="G40">
+        <v>-2.020501664336587</v>
+      </c>
+      <c r="H40">
+        <v>29.031796815143</v>
+      </c>
+      <c r="I40">
+        <v>34.53042724897319</v>
+      </c>
+      <c r="K40">
+        <f>F40-A5</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>G40-B5</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+      <c r="M40">
+        <f>H40-C5</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>I40-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>-0.48869839295195655</v>
+      </c>
+      <c r="C41">
+        <v>0.35730343216230021</v>
+      </c>
+      <c r="D41">
+        <v>0.79593224466107382</v>
+      </c>
+      <c r="F41">
+        <v>-27.727600256654227</v>
+      </c>
+      <c r="G41">
+        <v>5.528548850054138</v>
+      </c>
+      <c r="H41">
+        <v>-28.922664172953731</v>
+      </c>
+      <c r="I41">
+        <v>-24.129763631572217</v>
+      </c>
+      <c r="K41">
+        <f>F41-A6</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>G41-B6</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f>H41-C6</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>I41-D6</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59:Q63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B3">
+        <v>-24.551382679121204</v>
+      </c>
+      <c r="C3">
+        <v>23.775766128663562</v>
+      </c>
+      <c r="D3">
+        <v>-38.352964452853534</v>
+      </c>
+      <c r="E3">
+        <v>-40.300110586246049</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="array" ref="M3:Q7">MMULT(K3:K7,TRANSPOSE(K3:K7))</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>1-2*M3</f>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:W7" si="0">-2*N3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22.680664124697074</v>
+      </c>
+      <c r="B4">
+        <v>34.654938356312783</v>
+      </c>
+      <c r="C4">
+        <v>-8.4348753879891802</v>
+      </c>
+      <c r="D4">
+        <v>10.66979335537718</v>
+      </c>
+      <c r="E4">
+        <v>-46.474765854659893</v>
+      </c>
+      <c r="G4">
+        <f>A4</f>
+        <v>22.680664124697074</v>
+      </c>
+      <c r="H4">
+        <f>SQRT(SUMPRODUCT(G4:G7,G4:G7))</f>
+        <v>61.371267372893548</v>
+      </c>
+      <c r="I4">
+        <f>G4+H4</f>
+        <v>84.05193149759063</v>
+      </c>
+      <c r="J4">
+        <f>SQRT(SUMPRODUCT(I4:I7,I4:I7))</f>
+        <v>101.5713892899646</v>
+      </c>
+      <c r="K4">
+        <f>I4/J$4</f>
+        <v>0.82751582000754498</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.6847824323627596</v>
+      </c>
+      <c r="O4">
+        <v>-0.3215152368303324</v>
+      </c>
+      <c r="P4">
+        <v>0.33538067113051878</v>
+      </c>
+      <c r="Q4">
+        <v>-1.7918169773110512E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:T7" si="1">-2*M4</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>1-2*N4</f>
+        <v>-0.36956486472551919</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.64303047366066479</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>-0.67076134226103756</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>3.5836339546221024E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-39.463595127947045</v>
+      </c>
+      <c r="B5">
+        <v>30.450980167166492</v>
+      </c>
+      <c r="C5">
+        <v>-13.872017485315425</v>
+      </c>
+      <c r="D5">
+        <v>-25.026561374083045</v>
+      </c>
+      <c r="E5">
+        <v>40.83347566562054</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="2">A5</f>
+        <v>-39.463595127947045</v>
+      </c>
+      <c r="I5">
+        <f>G5</f>
+        <v>-39.463595127947045</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="3">I5/J$4</f>
+        <v>-0.38853062268634447</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>-0.3215152368303324</v>
+      </c>
+      <c r="O5">
+        <v>0.15095604476503857</v>
+      </c>
+      <c r="P5">
+        <v>-0.15746606631655272</v>
+      </c>
+      <c r="Q5">
+        <v>8.412839357298074E-4</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0.64303047366066479</v>
+      </c>
+      <c r="U5">
+        <f>1-2*O5</f>
+        <v>0.69808791046992291</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.31493213263310543</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>-1.6825678714596148E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>41.165473679303105</v>
+      </c>
+      <c r="B6">
+        <v>-29.728162840181284</v>
+      </c>
+      <c r="C6">
+        <v>7.087466139787665</v>
+      </c>
+      <c r="D6">
+        <v>9.517295673137447</v>
+      </c>
+      <c r="E6">
+        <v>-10.726176183377831</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>41.165473679303105</v>
+      </c>
+      <c r="I6">
+        <f>G6</f>
+        <v>41.165473679303105</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.40528611420076649</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.33538067113051878</v>
+      </c>
+      <c r="O6">
+        <v>-0.15746606631655272</v>
+      </c>
+      <c r="P6">
+        <v>0.16425683436395674</v>
+      </c>
+      <c r="Q6">
+        <v>-8.7756454020025589E-4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>-0.67076134226103756</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.31493213263310543</v>
+      </c>
+      <c r="V6">
+        <f>1-2*P6</f>
+        <v>0.67148633127208646</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>1.7551290804005118E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.21993215759569296</v>
+      </c>
+      <c r="B7">
+        <v>13.856871758752106</v>
+      </c>
+      <c r="C7">
+        <v>-38.386308225339825</v>
+      </c>
+      <c r="D7">
+        <v>5.1713044181590035</v>
+      </c>
+      <c r="E7">
+        <v>-11.659593685054134</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-0.21993215759569296</v>
+      </c>
+      <c r="I7">
+        <f>G7</f>
+        <v>-0.21993215759569296</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-2.1652963411560085E-3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-1.7918169773110512E-3</v>
+      </c>
+      <c r="O7">
+        <v>8.412839357298074E-4</v>
+      </c>
+      <c r="P7">
+        <v>-8.7756454020025589E-4</v>
+      </c>
+      <c r="Q7">
+        <v>4.6885082450235977E-6</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>3.5836339546221024E-3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>-1.6825678714596148E-3</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1.7551290804005118E-3</v>
+      </c>
+      <c r="W7">
+        <f>1-2*Q7</f>
+        <v>0.99999062298350994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="array" ref="A11:E15">MMULT(S3:W7,A3:E7)</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B11">
+        <v>-24.551382679121204</v>
+      </c>
+      <c r="C11">
+        <v>23.775766128663562</v>
+      </c>
+      <c r="D11">
+        <v>-38.352964452853534</v>
+      </c>
+      <c r="E11">
+        <v>-40.300110586246049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-61.371267372893548</v>
+      </c>
+      <c r="B12">
+        <v>26.763820960376844</v>
+      </c>
+      <c r="C12">
+        <v>-10.694457171175115</v>
+      </c>
+      <c r="D12">
+        <v>-26.40132431080977</v>
+      </c>
+      <c r="E12">
+        <v>50.585530372966794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-8.6125225874644773E-15</v>
+      </c>
+      <c r="B13">
+        <v>34.155973692856527</v>
+      </c>
+      <c r="C13">
+        <v>-12.811111221041291</v>
+      </c>
+      <c r="D13">
+        <v>-7.621136508137841</v>
+      </c>
+      <c r="E13">
+        <v>-4.7377344788538096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.593724268504463E-15</v>
+      </c>
+      <c r="B14">
+        <v>-33.592935245465071</v>
+      </c>
+      <c r="C14">
+        <v>5.9808079968437422</v>
+      </c>
+      <c r="D14">
+        <v>-8.638742996759289</v>
+      </c>
+      <c r="E14">
+        <v>36.810305114238297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="B15">
+        <v>13.87751983243473</v>
+      </c>
+      <c r="C15">
+        <v>-38.380395753276595</v>
+      </c>
+      <c r="D15">
+        <v>5.2683055310131675</v>
+      </c>
+      <c r="E15">
+        <v>-11.9135638197777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="array" ref="A19:E23">MMULT(A11:E15,S3:W7)</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B19">
+        <v>49.943135645407608</v>
+      </c>
+      <c r="C19">
+        <v>-11.200485553249393</v>
+      </c>
+      <c r="D19">
+        <v>-1.8683521577909452</v>
+      </c>
+      <c r="E19">
+        <v>-40.495034603484548</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="array" ref="M19:Q23">MMULT(K19:K23,TRANSPOSE(K19:K23))</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>1-2*M19</f>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:W22" si="4">-2*N19</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-61.371267372893548</v>
+      </c>
+      <c r="B20">
+        <v>1.1224380233607443</v>
+      </c>
+      <c r="C20">
+        <v>1.3445422511767573</v>
+      </c>
+      <c r="D20">
+        <v>-38.959508942473164</v>
+      </c>
+      <c r="E20">
+        <v>50.652624187143296</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:V23" si="5">-2*M20</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>1-2*N20</f>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-8.6125225874644773E-15</v>
+      </c>
+      <c r="B21">
+        <v>-15.765797266347823</v>
+      </c>
+      <c r="C21">
+        <v>10.627880865185997</v>
+      </c>
+      <c r="D21">
+        <v>-32.070941668227867</v>
+      </c>
+      <c r="E21">
+        <v>-4.6071080601334904</v>
+      </c>
+      <c r="G21">
+        <f>B21</f>
+        <v>-15.765797266347823</v>
+      </c>
+      <c r="H21">
+        <f>SQRT(SUMPRODUCT(G21:G23,G21:G23))</f>
+        <v>43.074076014288657</v>
+      </c>
+      <c r="I21">
+        <f>G21-H21</f>
+        <v>-58.839873280636482</v>
+      </c>
+      <c r="J21">
+        <f>SQRT(SUMPRODUCT(I21:I23,I21:I23))</f>
+        <v>71.196533263372416</v>
+      </c>
+      <c r="K21">
+        <f>I21/J$21</f>
+        <v>-0.82644295422326541</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.68300795658527835</v>
+      </c>
+      <c r="P21">
+        <v>-0.25754539538688165</v>
+      </c>
+      <c r="Q21">
+        <v>0.38752865331675257</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>1-2*O21</f>
+        <v>-0.36601591317055671</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>0.5150907907737633</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>-0.77505730663350514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.593724268504463E-15</v>
+      </c>
+      <c r="B22">
+        <v>22.187059876049133</v>
+      </c>
+      <c r="C22">
+        <v>-20.208704897067545</v>
+      </c>
+      <c r="D22">
+        <v>18.68019994831949</v>
+      </c>
+      <c r="E22">
+        <v>36.664349935586593</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G23" si="6">B22</f>
+        <v>22.187059876049133</v>
+      </c>
+      <c r="I22">
+        <f>G22</f>
+        <v>22.187059876049133</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K23" si="7">I22/J$21</f>
+        <v>0.31163118285512686</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>-0.25754539538688165</v>
+      </c>
+      <c r="P22">
+        <v>9.711399412768551E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-0.1461274634942665</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>0.5150907907737633</v>
+      </c>
+      <c r="V22">
+        <f>1-2*P22</f>
+        <v>0.80577201174462898</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>0.292254926988533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="B23">
+        <v>-33.384877341361424</v>
+      </c>
+      <c r="C23">
+        <v>-16.190018047365282</v>
+      </c>
+      <c r="D23">
+        <v>-17.879038405210892</v>
+      </c>
+      <c r="E23">
+        <v>-11.789895977785568</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>-33.384877341361424</v>
+      </c>
+      <c r="I23">
+        <f>G23</f>
+        <v>-33.384877341361424</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>-0.46891155806509643</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.38752865331675257</v>
+      </c>
+      <c r="P23">
+        <v>-0.1461274634942665</v>
+      </c>
+      <c r="Q23">
+        <v>0.2198780492870363</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>-0.77505730663350514</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>0.292254926988533</v>
+      </c>
+      <c r="W23">
+        <f>1-2*Q23</f>
+        <v>0.56024390142592739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="array" ref="A27:E31">MMULT(S19:W23,A19:E23)</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B27">
+        <v>49.943135645407608</v>
+      </c>
+      <c r="C27">
+        <v>-11.200485553249393</v>
+      </c>
+      <c r="D27">
+        <v>-1.8683521577909452</v>
+      </c>
+      <c r="E27">
+        <v>-40.495034603484548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-61.371267372893548</v>
+      </c>
+      <c r="B28">
+        <v>1.1224380233607443</v>
+      </c>
+      <c r="C28">
+        <v>1.3445422511767573</v>
+      </c>
+      <c r="D28">
+        <v>-38.959508942473164</v>
+      </c>
+      <c r="E28">
+        <v>50.652624187143296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6.0766204997486346E-15</v>
+      </c>
+      <c r="B29">
+        <v>43.074076014288664</v>
+      </c>
+      <c r="C29">
+        <v>-1.7510995237443083</v>
+      </c>
+      <c r="D29">
+        <v>35.217753315667736</v>
+      </c>
+      <c r="E29">
+        <v>29.709588887264147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5.4811979393477463E-17</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>-15.540897782941418</v>
+      </c>
+      <c r="D30">
+        <v>-6.6927014763375041</v>
+      </c>
+      <c r="E30">
+        <v>23.724372884842207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8.2788922537077562E-15</v>
+      </c>
+      <c r="B31">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="C31">
+        <v>-23.213669167830211</v>
+      </c>
+      <c r="D31">
+        <v>20.299575912724919</v>
+      </c>
+      <c r="E31">
+        <v>7.6808923579630255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="array" ref="A35:E39">MMULT(A27:E31,S19:W23)</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B35">
+        <v>49.943135645407608</v>
+      </c>
+      <c r="C35">
+        <v>34.52315740913312</v>
+      </c>
+      <c r="D35">
+        <v>-19.109606218943462</v>
+      </c>
+      <c r="E35">
+        <v>-14.552113132209218</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="array" ref="M35:Q39">MMULT(K35:K39,TRANSPOSE(K35:K39))</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>1-2*M35</f>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ref="T35:W38" si="8">-2*N35</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-61.371267372893548</v>
+      </c>
+      <c r="B36">
+        <v>1.1224380233607443</v>
+      </c>
+      <c r="C36">
+        <v>-59.818494605603277</v>
+      </c>
+      <c r="D36">
+        <v>-15.896441582180929</v>
+      </c>
+      <c r="E36">
+        <v>15.949618054722853</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:V39" si="9">-2*M36</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f>1-2*N36</f>
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6.0766204997486346E-15</v>
+      </c>
+      <c r="B37">
+        <v>43.074076014288664</v>
+      </c>
+      <c r="C37">
+        <v>-4.2453632482732466</v>
+      </c>
+      <c r="D37">
+        <v>36.15827843098937</v>
+      </c>
+      <c r="E37">
+        <v>28.294380392452361</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>1-2*O37</f>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5.4811979393477463E-17</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-16.146881552040597</v>
+      </c>
+      <c r="D38">
+        <v>-6.4641999956359477</v>
+      </c>
+      <c r="E38">
+        <v>23.380546620877602</v>
+      </c>
+      <c r="G38">
+        <f>C38</f>
+        <v>-16.146881552040597</v>
+      </c>
+      <c r="H38">
+        <f>SQRT(SUMPRODUCT(G38:G39,G38:G39))</f>
+        <v>20.729459202674196</v>
+      </c>
+      <c r="I38">
+        <f>G38-H38</f>
+        <v>-36.876340754714789</v>
+      </c>
+      <c r="J38">
+        <f>SQRT(SUMPRODUCT(I38:I39,I38:I39))</f>
+        <v>39.100552456935233</v>
+      </c>
+      <c r="K38">
+        <f>I38/J38</f>
+        <v>-0.94311559396327815</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0.88946702357670693</v>
+      </c>
+      <c r="Q38">
+        <v>-0.31355292622825365</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>1-2*P38</f>
+        <v>-0.77893404715341386</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="8"/>
+        <v>0.6271058524565073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8.2788922537077562E-15</v>
+      </c>
+      <c r="B39">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="C39">
+        <v>12.999565184255392</v>
+      </c>
+      <c r="D39">
+        <v>6.6444615476242435</v>
+      </c>
+      <c r="E39">
+        <v>28.227748079629123</v>
+      </c>
+      <c r="G39">
+        <f>C39</f>
+        <v>12.999565184255392</v>
+      </c>
+      <c r="I39">
+        <f>G39</f>
+        <v>12.999565184255392</v>
+      </c>
+      <c r="K39">
+        <f>I39/J38</f>
+        <v>0.33246500029821624</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>-0.31355292622825365</v>
+      </c>
+      <c r="Q39">
+        <v>0.11053297642329292</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="9"/>
+        <v>0.6271058524565073</v>
+      </c>
+      <c r="W39">
+        <f>1-2*Q39</f>
+        <v>0.77893404715341419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="array" ref="A43:E47">MMULT(S35:W39,A35:E39)</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B43">
+        <v>49.943135645407608</v>
+      </c>
+      <c r="C43">
+        <v>34.52315740913312</v>
+      </c>
+      <c r="D43">
+        <v>-19.109606218943462</v>
+      </c>
+      <c r="E43">
+        <v>-14.552113132209218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-61.371267372893548</v>
+      </c>
+      <c r="B44">
+        <v>1.1224380233607443</v>
+      </c>
+      <c r="C44">
+        <v>-59.818494605603277</v>
+      </c>
+      <c r="D44">
+        <v>-15.896441582180929</v>
+      </c>
+      <c r="E44">
+        <v>15.949618054722853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6.0766204997486346E-15</v>
+      </c>
+      <c r="B45">
+        <v>43.074076014288664</v>
+      </c>
+      <c r="C45">
+        <v>-4.2453632482732466</v>
+      </c>
+      <c r="D45">
+        <v>36.15827843098937</v>
+      </c>
+      <c r="E45">
+        <v>28.294380392452361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5.1490468672155262E-15</v>
+      </c>
+      <c r="B46">
+        <v>2.2279275400780822E-15</v>
+      </c>
+      <c r="C46">
+        <v>20.729459202674189</v>
+      </c>
+      <c r="D46">
+        <v>9.2019661871471747</v>
+      </c>
+      <c r="E46">
+        <v>-0.51011778165590727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6.4830839621900085E-15</v>
+      </c>
+      <c r="B47">
+        <v>2.767329644205369E-15</v>
+      </c>
+      <c r="C47">
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="D47">
+        <v>1.1218596757335577</v>
+      </c>
+      <c r="E47">
+        <v>36.649631673277085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="array" ref="A51:E55">MMULT(A43:E47,S35:W39)</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="B51">
+        <v>49.943135645407608</v>
+      </c>
+      <c r="C51">
+        <v>34.52315740913312</v>
+      </c>
+      <c r="D51">
+        <v>5.7594076008120805</v>
+      </c>
+      <c r="E51">
+        <v>-23.318882274744787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-61.371267372893548</v>
+      </c>
+      <c r="B52">
+        <v>1.1224380233607443</v>
+      </c>
+      <c r="C52">
+        <v>-59.818494605603277</v>
+      </c>
+      <c r="D52">
+        <v>22.384378403508684</v>
+      </c>
+      <c r="E52">
+        <v>2.4549489924977959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6.0766204997486346E-15</v>
+      </c>
+      <c r="B53">
+        <v>43.074076014288664</v>
+      </c>
+      <c r="C53">
+        <v>-4.2453632482732466</v>
+      </c>
+      <c r="D53">
+        <v>-10.421342620613018</v>
+      </c>
+      <c r="E53">
+        <v>44.714524249616453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5.1490468672155262E-15</v>
+      </c>
+      <c r="B54">
+        <v>2.2279275400780822E-15</v>
+      </c>
+      <c r="C54">
+        <v>20.729459202674189</v>
+      </c>
+      <c r="D54">
+        <v>-7.4876226102419681</v>
+      </c>
+      <c r="E54">
+        <v>5.3732587418767279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6.4830839621900085E-15</v>
+      </c>
+      <c r="B55">
+        <v>2.767329644205369E-15</v>
+      </c>
+      <c r="C55">
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="D55">
+        <v>22.109343815130082</v>
+      </c>
+      <c r="E55">
+        <v>29.251170694235146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="array" ref="A59:E63">MMULT(S3:W7,MMULT(S19:W23,S35:W39))</f>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="array" ref="G59:K63">MMULT(A59:E63,MMULT(A51:E55,TRANSPOSE(A59:E63)))</f>
+        <v>9.4696176296124364</v>
+      </c>
+      <c r="H59">
+        <v>-24.551382679121204</v>
+      </c>
+      <c r="I59">
+        <v>23.775766128663566</v>
+      </c>
+      <c r="J59">
+        <v>-38.35296445285352</v>
+      </c>
+      <c r="K59">
+        <v>-40.300110586246056</v>
+      </c>
+      <c r="M59">
+        <f>G59-A3</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:Q59" si="10">H59-B3</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>-0.36956486472551919</v>
+      </c>
+      <c r="C60">
+        <v>-0.58363989789994231</v>
+      </c>
+      <c r="D60">
+        <v>-0.27202981890682248</v>
+      </c>
+      <c r="E60">
+        <v>-0.66991496323434607</v>
+      </c>
+      <c r="G60">
+        <v>22.680664124697067</v>
+      </c>
+      <c r="H60">
+        <v>34.654938356312812</v>
+      </c>
+      <c r="I60">
+        <v>-8.4348753879891767</v>
+      </c>
+      <c r="J60">
+        <v>10.669793355377161</v>
+      </c>
+      <c r="K60">
+        <v>-46.474765854659886</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60:M63" si="11">G60-A4</f>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:N63" si="12">H60-B4</f>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60:O63" si="13">I60-C4</f>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ref="P60:P63" si="14">J60-D4</f>
+        <v>-1.9539925233402755E-14</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ref="Q60:Q63" si="15">K60-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0.64303047366066479</v>
+      </c>
+      <c r="C61">
+        <v>-9.198855626323911E-2</v>
+      </c>
+      <c r="D61">
+        <v>-0.75954280056008172</v>
+      </c>
+      <c r="E61">
+        <v>3.3832670271406823E-2</v>
+      </c>
+      <c r="G61">
+        <v>-39.463595127947052</v>
+      </c>
+      <c r="H61">
+        <v>30.450980167166513</v>
+      </c>
+      <c r="I61">
+        <v>-13.872017485315411</v>
+      </c>
+      <c r="J61">
+        <v>-25.026561374083027</v>
+      </c>
+      <c r="K61">
+        <v>40.83347566562054</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="13"/>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>-0.67076134226103756</v>
+      </c>
+      <c r="C62">
+        <v>0.2292459276384059</v>
+      </c>
+      <c r="D62">
+        <v>-0.57759844952344142</v>
+      </c>
+      <c r="E62">
+        <v>0.40485251326562616</v>
+      </c>
+      <c r="G62">
+        <v>41.165473679303098</v>
+      </c>
+      <c r="H62">
+        <v>-29.728162840181277</v>
+      </c>
+      <c r="I62">
+        <v>7.0874661397876491</v>
+      </c>
+      <c r="J62">
+        <v>9.5172956731374416</v>
+      </c>
+      <c r="K62">
+        <v>-10.726176183377842</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="13"/>
+        <v>-1.5987211554602254E-14</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>3.5836339546221024E-3</v>
+      </c>
+      <c r="C63">
+        <v>-0.7735301414664828</v>
+      </c>
+      <c r="D63">
+        <v>0.1243967155956518</v>
+      </c>
+      <c r="E63">
+        <v>0.62142073908064654</v>
+      </c>
+      <c r="G63">
+        <v>-0.21993215759569293</v>
+      </c>
+      <c r="H63">
+        <v>13.856871758752106</v>
+      </c>
+      <c r="I63">
+        <v>-38.386308225339825</v>
+      </c>
+      <c r="J63">
+        <v>5.1713044181590098</v>
+      </c>
+      <c r="K63">
+        <v>-11.659593685054146</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F9"/>
+      <selection activeCell="C6" sqref="C6:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,1696 +5036,1684 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100 - 50</f>
-        <v>-9.1194107794757784</v>
+        <v>-39.004009778680036</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*100 - 50</f>
-        <v>11.898659230315289</v>
+        <v>49.319059856121754</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.17182199265762</v>
+        <v>-20.083340032310648</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.287972197175009</v>
+        <v>-10.339913960502209</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.890747555806449</v>
+        <v>26.263872472775077</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.801408406152049</v>
+        <v>33.151266480333362</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.147828778108419</v>
+        <v>9.295453297910008</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.0006964237041345</v>
+        <v>-31.706125895239957</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.991263669324184</v>
+        <v>-23.27784647883351</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.069822370545396</v>
+        <v>31.733321804177365</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J40" ca="1" si="1">RAND()*100 - 50</f>
-        <v>44.64352049600771</v>
+        <v>29.756629914529569</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.476175239058502</v>
+        <v>-31.821365331449915</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.418625441248167</v>
+        <v>-31.544419374744336</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.706438627078917</v>
+        <v>36.296415582952875</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.673941660070469</v>
+        <v>-47.219634203210639</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.899068082839641</v>
+        <v>31.969631835648968</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.505921265160829</v>
+        <v>-4.4566781244463343</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.931020076359044</v>
+        <v>31.926683756625337</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.680216399012032</v>
+        <v>-11.027286565800566</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.679055770154378</v>
+        <v>-49.489958815719163</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>24.488973206996874</v>
+        <v>-23.817289403516462</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.266276372686626</v>
+        <v>-14.357715252772465</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>24.681217105872406</v>
+        <v>5.5390377259736923</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.523266804942658</v>
+        <v>34.051004546369157</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6311984299083377</v>
+        <v>-27.16350094846154</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.854563671308625</v>
+        <v>-39.097342677934563</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.064170279774622</v>
+        <v>-26.122009078202467</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.785796213898095</v>
+        <v>12.334455557969783</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.349203564938179</v>
+        <v>43.036118655330114</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>20.287532517996254</v>
+        <v>-26.779210916610985</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>25.693891092208048</v>
+        <v>-5.5162339379740786</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.66728556433948</v>
+        <v>13.924802879623307</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1370002902153047</v>
+        <v>-11.998966910098339</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1922959511226949</v>
+        <v>-8.4906380594211086</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.428687433882217</v>
+        <v>-49.010620840485139</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>45.574381413578948</v>
+        <v>-5.8593228022242201</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>32.646705176775868</v>
+        <v>37.750711268958625</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.227986890684257</v>
+        <v>39.509924442606533</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>17.342108443321763</v>
+        <v>41.288600141767319</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>24.887660911142589</v>
+        <v>-41.497918109052449</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9760862474840621</v>
+        <v>44.85313245916528</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3734698990879153</v>
+        <v>20.555164886346901</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>20.351076012141007</v>
+        <v>-41.806901322173495</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.831680160220181</v>
+        <v>35.742253748326831</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.70906083056461</v>
+        <v>-13.336315807051072</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>16.660459607806573</v>
+        <v>-20.420511602914626</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.146213774710084</v>
+        <v>49.349515674313466</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.699788433414611</v>
+        <v>-9.8658649592458261</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.765678752860353</v>
+        <v>22.696267278737565</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>19.368143355589467</v>
+        <v>-0.39776755095245164</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5124595704818447</v>
+        <v>21.507547413555955</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.12766524483618</v>
+        <v>29.384391327598081</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.301083287748611</v>
+        <v>29.726627970264445</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>25.990069363696293</v>
+        <v>-30.28439789822357</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.202887180189975</v>
+        <v>44.545876301428635</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.631459933779439</v>
+        <v>-37.464421487784051</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.579061973284368</v>
+        <v>48.464966387506678</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.639143926173013</v>
+        <v>32.279290264149267</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0690562124601399</v>
+        <v>-48.164430898518397</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.606952420581301</v>
+        <v>25.775692909195058</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.564951791055218</v>
+        <v>7.871008945649038</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>23.87326048839671</v>
+        <v>-37.649893673347677</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>24.142359150996811</v>
+        <v>49.420335628414847</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.776597206715504</v>
+        <v>-22.598058391246067</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>27.654003110035589</v>
+        <v>4.4505652494752823</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>23.718046988263836</v>
+        <v>-44.185898722026195</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1713278598305408</v>
+        <v>-7.6017212085219157</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.330851692285947</v>
+        <v>-6.9090900275386105</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.003751507673968</v>
+        <v>-22.77056673978467</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>45.185799422175833</v>
+        <v>7.9235218027251548</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1393448447048513</v>
+        <v>47.817036045674854</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.514737201014309</v>
+        <v>-21.453754186288233</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.302524453533639</v>
+        <v>47.881221176065964</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.820247969854019</v>
+        <v>9.6119061617252584</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0416045442984796</v>
+        <v>20.549100771544573</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.864571111668482</v>
+        <v>-40.74292021311571</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>30.119186079387504</v>
+        <v>-43.455921135975508</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.953542536002359</v>
+        <v>-41.115482299488349</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>44.186473807264051</v>
+        <v>-12.60249074943529</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0450134034343392</v>
+        <v>-7.0450930385207684</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.475500951279606</v>
+        <v>28.113856568037463</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.075672224450734</v>
+        <v>37.911704649799631</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5640028141788704</v>
+        <v>14.534683779736284</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>32.835199727553842</v>
+        <v>-13.518138963570628</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.62239391898159</v>
+        <v>-16.262243032411469</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.797203011364388</v>
+        <v>19.364558939941517</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>41.320039672100435</v>
+        <v>49.345206729934858</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.250095948076314</v>
+        <v>-18.574116092067104</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.200494057813998</v>
+        <v>-35.922950671825333</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4755436240882176</v>
+        <v>26.883122967975865</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.00035188399066</v>
+        <v>-1.7116451658892302</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.383212087860784</v>
+        <v>-33.804822957052572</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.818322648550435</v>
+        <v>29.08858937679139</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>48.452379860897565</v>
+        <v>41.122309887092939</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>20.352963792594721</v>
+        <v>-12.070522154989128</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.150265278727435</v>
+        <v>31.585712800327286</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>42.30918323891882</v>
+        <v>11.017482056766212</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.584407794158217</v>
+        <v>22.26148504173409</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.007230773422314</v>
+        <v>-30.299501378994865</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5905826176207327</v>
+        <v>40.341883629191216</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.756054416879593</v>
+        <v>-46.338555068640531</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0186031479152646</v>
+        <v>4.1268718703845622</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.780332388025535</v>
+        <v>-15.327812223132874</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>21.119694328328563</v>
+        <v>32.87353052670548</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.000115955302491</v>
+        <v>37.211550754338134</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>33.541717670541857</v>
+        <v>29.868250692320743</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.641324980298961</v>
+        <v>-36.050486087123858</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.50684109824725</v>
+        <v>-43.585202339576412</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>43.751322563706367</v>
+        <v>6.8309730612489474</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>29.50734384577062</v>
+        <v>46.786722588169951</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>14.336205448755592</v>
+        <v>-23.39007581743029</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5053220469827409</v>
+        <v>8.8565762786918754</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>26.703944498659098</v>
+        <v>31.322625291466082</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.777304965381028</v>
+        <v>-30.848027463328521</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>37.32979771750253</v>
+        <v>-8.9375644423248986</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0327591849129334</v>
+        <v>-43.220168448084586</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.529135507098076</v>
+        <v>22.247212597523529</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.246912790773088</v>
+        <v>-42.341246698870989</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.957651487079083</v>
+        <v>7.3009434104837183</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.7768930881133898</v>
+        <v>-4.2178767463759925E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.961362318741713</v>
+        <v>48.372205391337417</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7789865340633142</v>
+        <v>38.7343711550579</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>49.249942261167789</v>
+        <v>22.575785018215811</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0415086692764959</v>
+        <v>-49.813292857216418</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.971468425279177</v>
+        <v>18.419716481440759</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.514544438265027</v>
+        <v>-0.81375946033887914</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0078822697566707</v>
+        <v>35.313474795829521</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>39.074997040610995</v>
+        <v>-40.615128672367241</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>35.527407459718191</v>
+        <v>16.643328275038542</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4666226908551749</v>
+        <v>-27.031967688824043</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.255503428069673</v>
+        <v>40.771847294766303</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.261481855392049</v>
+        <v>5.9034462594360946</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.487387664390717</v>
+        <v>-49.641265102188527</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.0948110928055</v>
+        <v>26.694959204761275</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2150275947480011</v>
+        <v>34.413159390179487</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.111959951012413</v>
+        <v>15.272836765082033</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7984640282047906</v>
+        <v>49.335351976465716</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>44.367340766985777</v>
+        <v>19.204016614644033</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.919981065887704</v>
+        <v>-1.8182113312694952</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>48.550535496218089</v>
+        <v>11.376634854764092</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>28.145519869137814</v>
+        <v>-46.024474833301198</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.778749658565086</v>
+        <v>-35.815340082275128</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.144610589842479</v>
+        <v>-37.868484569950724</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.176842948761617</v>
+        <v>-37.904054997589832</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.883825626586599</v>
+        <v>-8.9300550285697042</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.413514380152339</v>
+        <v>-46.528346013149921</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4315268493674083</v>
+        <v>-36.461364941717221</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.478579510189313</v>
+        <v>-25.398953054458385</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>45.655500149955714</v>
+        <v>4.751513859695244</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4653199685969156</v>
+        <v>-11.312846133378983</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.081795835895178</v>
+        <v>31.545435737030274</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.823738707208967</v>
+        <v>18.557124830347448</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7220208245975215</v>
+        <v>44.202642891725759</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0631169109462917</v>
+        <v>-2.1659434913816611</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>25.512361990857912</v>
+        <v>-4.8340904960030713</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.02471398592445</v>
+        <v>14.897096793030101</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.683168392326138</v>
+        <v>-18.192464793706741</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.212130077427254</v>
+        <v>-42.452605456691593</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.662521492524462</v>
+        <v>-6.9671203308532057</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>40.949951172849666</v>
+        <v>-38.582716736351642</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>34.566994875179418</v>
+        <v>-8.0581778904590919</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>18.444066124872833</v>
+        <v>2.1555853585021509</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.799809776420219</v>
+        <v>23.738291888892277</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.270715241132109</v>
+        <v>-33.604189841511676</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7462827451753498</v>
+        <v>10.026278829971005</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.977135201905796</v>
+        <v>18.066050711703014</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.738879582042927</v>
+        <v>-19.796616724516003</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.334566812963963</v>
+        <v>35.626239571842447</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8899112088233636</v>
+        <v>15.474644277293422</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>23.02810879351297</v>
+        <v>21.761678515842121</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>23.373312788625356</v>
+        <v>-32.346647824105681</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.824388380547028</v>
+        <v>20.365721442879277</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>29.411288188270646</v>
+        <v>-48.649261787610854</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.502662032782652</v>
+        <v>-33.333556618164167</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.959238328252624</v>
+        <v>-4.4692109372806001</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>48.676620423407016</v>
+        <v>-48.947763116012219</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.358890920755172</v>
+        <v>19.041547232129631</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.987581628049327</v>
+        <v>-15.582828062711421</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.735488671145482</v>
+        <v>20.436076543610255</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.391036016840928</v>
+        <v>45.793190725781486</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.519032262161318</v>
+        <v>9.949176655078908</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.235342348052029</v>
+        <v>-26.856948677218973</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6539532805624191</v>
+        <v>11.01068009885401</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>27.108735563279865</v>
+        <v>-44.128747262837429</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.303479106904316</v>
+        <v>45.612896398473922</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.148562918256879</v>
+        <v>2.2102076964731552</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.909543627016127</v>
+        <v>-28.998199057486406</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>37.807422586986092</v>
+        <v>2.1180946602778832</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4868123131128499</v>
+        <v>28.480804587384654</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.899125413062215</v>
+        <v>19.707712033561762</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1409137317085509</v>
+        <v>-31.386528952453606</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4684030065838698</v>
+        <v>26.69873764506201</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.419867027154929</v>
+        <v>40.5050081990981</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.493717015396491</v>
+        <v>39.807140150681676</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>25.852129054466261</v>
+        <v>-0.13895083614726644</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.29540219863609</v>
+        <v>43.27790459564541</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>24.516553283436565</v>
+        <v>-40.407879328542805</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>28.385103901930549</v>
+        <v>3.999329026439149</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.756033852167235</v>
+        <v>12.518120720259432</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.520338567468581</v>
+        <v>31.359638535404457</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>33.111055776042235</v>
+        <v>-26.479310773972575</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.420627549135979</v>
+        <v>35.470837062769959</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.62778472047259</v>
+        <v>-11.894545989626451</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>30.100645901295849</v>
+        <v>-26.795023376462311</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.465924119469527</v>
+        <v>29.063270520582336</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>17.537303462605578</v>
+        <v>23.014724582770256</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>16.345204401796735</v>
+        <v>-17.546488562627417</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>30.518127896990137</v>
+        <v>-47.305948806101796</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>32.298624643423352</v>
+        <v>-31.580354324626835</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.657017977692533</v>
+        <v>-4.539585132944211</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.126324665087395</v>
+        <v>27.852559031455115</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.062110423518</v>
+        <v>0.42710004266499624</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.933228057766627</v>
+        <v>-23.278643405838395</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>41.724969951622342</v>
+        <v>39.036156424841693</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>44.653231942434374</v>
+        <v>-22.702844583112359</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4163070086070704</v>
+        <v>46.492705731483525</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>44.119553626640069</v>
+        <v>45.427065849424437</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.912223039767035</v>
+        <v>-32.588890695057458</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6898091589242981</v>
+        <v>14.148476478495013</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9942939199297101</v>
+        <v>33.627161285930455</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6939676635940373</v>
+        <v>49.87853799835456</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>12.286480152238063</v>
+        <v>5.2644307734073479</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.510559364691488</v>
+        <v>49.510604490356542</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>21.300539041343441</v>
+        <v>-2.3123968201330456</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>42.544408414575358</v>
+        <v>40.227663272025069</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.035414551281562</v>
+        <v>34.390876596504128</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.423763019650437</v>
+        <v>17.803552154356325</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>28.911877496450543</v>
+        <v>25.483993871992936</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.756649419037743</v>
+        <v>-26.22100090557019</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.11368528427143</v>
+        <v>29.94239732292084</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.83118165022411</v>
+        <v>31.603228902086897</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>19.520615642801985</v>
+        <v>-12.701608023294774</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.775478722241623</v>
+        <v>-9.2192607150324264</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.558734159827921</v>
+        <v>30.500017895036862</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>18.446589622090286</v>
+        <v>-46.055534839804594</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.470032554971965</v>
+        <v>-2.560727292063703</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>43.666702734957624</v>
+        <v>-32.696840559415598</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>12.802017159379176</v>
+        <v>-30.80135700122263</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.837200615496819</v>
+        <v>22.683864898636187</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80304693910530034</v>
+        <v>-44.691165235278582</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5895677447299619</v>
+        <v>11.199962093150241</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.821019049620205</v>
+        <v>24.304760686053257</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37915635245548884</v>
+        <v>-0.90171079410153254</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>33.47796168328469</v>
+        <v>17.911303886681068</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>14.949757767633926</v>
+        <v>47.77663801370305</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.45066401648554</v>
+        <v>28.391880227498845</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.816626008922981</v>
+        <v>-14.376534358723973</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.411045397482464</v>
+        <v>49.745982316600461</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.493331533921477</v>
+        <v>15.891525963599136</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>38.08305500624148</v>
+        <v>-39.12937534607633</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.874350062024142</v>
+        <v>-23.166060071003525</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>23.735706375299088</v>
+        <v>-39.737879870850648</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.247828955350712</v>
+        <v>15.682411308280891</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>37.065785254388089</v>
+        <v>15.814757389717187</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9470209997499239</v>
+        <v>-27.088732648788614</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>21.471857925206223</v>
+        <v>-36.632166281292221</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.730919898962064</v>
+        <v>-37.830662427752181</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.919456252912056</v>
+        <v>-47.846656065522772</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>25.74071788428185</v>
+        <v>-46.269213331160508</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.024922193138746</v>
+        <v>17.035459421513593</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.14200290704477</v>
+        <v>-40.240692398538414</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.181832369798869</v>
+        <v>22.203670702116199</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.767841354972994</v>
+        <v>11.831687419844087</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>41.900714868537776</v>
+        <v>36.849748946937439</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>19.218362066961163</v>
+        <v>-30.055668850781061</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>18.506468076159237</v>
+        <v>-20.656493270460686</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.645070610977072</v>
+        <v>2.605830401665358</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.268631801615598</v>
+        <v>37.031527195334519</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6284795138946393</v>
+        <v>-39.860267390104688</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>27.599828330209206</v>
+        <v>-32.369737548370622</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>34.836070273729987</v>
+        <v>-13.856653650792147</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40056348403260955</v>
+        <v>-31.318506145419722</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>42.701931788669896</v>
+        <v>39.285768481055698</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.226833829659356</v>
+        <v>49.308682985572545</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6453923719747436</v>
+        <v>9.094670035811113</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>27.841377482232417</v>
+        <v>32.506247689942754</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.559467008970255</v>
+        <v>32.811619211238536</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>15.072263334164205</v>
+        <v>-1.6046130184879246</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.560123646255228</v>
+        <v>-1.6672373254764992</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.849097121785903</v>
+        <v>-33.607174665842479</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1553484047055633</v>
+        <v>29.252728784967914</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.024537870923041</v>
+        <v>26.160803402892896</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.316059601963239</v>
+        <v>-48.398614199935984</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.252336851959761</v>
+        <v>46.57926935000242</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>33.972286500812615</v>
+        <v>3.6432208535782848</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>31.602174196826155</v>
+        <v>-44.591911493959245</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.625894035318915</v>
+        <v>44.584713475531785</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>13.183951955956097</v>
+        <v>1.6967693826390544</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>34.24052190762373</v>
+        <v>39.561825456561891</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>46.615359835052132</v>
+        <v>-37.25594072086507</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>49.156228887712189</v>
+        <v>-21.077034148164952</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>44.122259461629142</v>
+        <v>-7.9186915959757016</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>43.384359598238191</v>
+        <v>-8.6986401954666022</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>23.416792722451248</v>
+        <v>-5.3881088258159622</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>39.518488582161964</v>
+        <v>-7.5134433186211282</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>39.668990354337936</v>
+        <v>25.748723509065712</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>28.393095545247377</v>
+        <v>37.540624503144073</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.146382270665107</v>
+        <v>35.500604796081419</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.01440791751941</v>
+        <v>-18.126052233031164</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.791826191857339</v>
+        <v>-37.994181447542218</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>48.72009031021625</v>
+        <v>-3.1013035678154282</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>25.313234014441477</v>
+        <v>-28.88970808214718</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1124873930802792</v>
+        <v>16.165106029493785</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.501491241944848</v>
+        <v>-21.773119669322849</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.260314470401852</v>
+        <v>19.043521143406934</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.517741272192509</v>
+        <v>26.833764793560491</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.277214986383171</v>
+        <v>31.315417473798007</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.630099206181676</v>
+        <v>47.943811244703198</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>43.411179833753138</v>
+        <v>-21.184737376291363</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>47.333003751111093</v>
+        <v>32.185725609077465</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.590297958314856</v>
+        <v>-16.335538271330186</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.548119697584653</v>
+        <v>-22.133877626725251</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36544425095294031</v>
+        <v>32.25196072012173</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>29.025443247429607</v>
+        <v>-7.0773488152889499</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>10.356338995365768</v>
+        <v>14.172307194290539</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>12.638002265229929</v>
+        <v>-24.435937701902677</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13581818487978836</v>
+        <v>10.616765795428073</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.405258356146625</v>
+        <v>12.549948942481926</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.384326863852401</v>
+        <v>43.409082671284295</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.809263069220023</v>
+        <v>-9.5593312464738602</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>37.729089252126585</v>
+        <v>-35.621501989795661</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.04047438467979</v>
+        <v>2.2319645221037234</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>49.992384564303023</v>
+        <v>25.642575497550638</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.218700167954722</v>
+        <v>-0.3338634303904584</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.557930062407621</v>
+        <v>32.319176500018415</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>25.203870870101326</v>
+        <v>-35.259679366008378</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1175224325757256</v>
+        <v>30.958063680818455</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>15.374046095829627</v>
+        <v>-18.718864087875563</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>44.832833422805678</v>
+        <v>17.976810399194179</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.527136349814356</v>
+        <v>-16.762885974596109</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.101599839850195</v>
+        <v>-15.983753562682224</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3021273086006886</v>
+        <v>-29.746829629715275</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.337922126204546</v>
+        <v>13.933133875936846</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3587844303867982</v>
+        <v>13.707854238048689</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.435740409792778</v>
+        <v>-19.39018971723344</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.597817162016447</v>
+        <v>5.0844709276834621</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>20.32053966134103</v>
+        <v>46.480555897938686</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>46.710127810883833</v>
+        <v>12.7924080436133</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
-        <v>43.848889837432168</v>
+        <v>13.530377523395266</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.282552159467848</v>
+        <v>-24.173528961485314</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0712566664526264</v>
+        <v>-10.211908369060318</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>37.481834154465759</v>
+        <v>9.447556924270117</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.383803769256467</v>
+        <v>-24.293251810903726</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>10.105404982250846</v>
+        <v>7.7982489285259646</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.917892700069075</v>
+        <v>-11.825720110521075</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>21.69780791561729</v>
+        <v>-24.55633666294883</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>41.588981306730986</v>
+        <v>20.494230737461265</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>31.111866037940189</v>
+        <v>30.956200638881157</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.530406809376615</v>
+        <v>24.372083724986709</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9227851507034686</v>
+        <v>-24.101700913827372</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>45.023109822790133</v>
+        <v>7.8627153578255999</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.807313313438414</v>
+        <v>-8.0571143924739488</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.96708926011183</v>
+        <v>-11.942964586463845</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>33.117625906058763</v>
+        <v>-49.376157010067878</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>14.322348840918181</v>
+        <v>27.1848669628952</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>45.848687811193528</v>
+        <v>-36.098648263589396</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.97889136054674</v>
+        <v>32.693112333821531</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4561792060764063</v>
+        <v>-42.716195949796003</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.550294608749073</v>
+        <v>-27.323409295772038</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.897654217184023</v>
+        <v>40.79295835628443</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>45.410274727685362</v>
+        <v>39.844400876329772</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.774465238652432</v>
+        <v>6.725826324717076</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>20.457796299058757</v>
+        <v>23.317024556311836</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>40.862007006336938</v>
+        <v>21.860807277589402</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>10.481583382368079</v>
+        <v>4.9176220945754494</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3862510331388762</v>
+        <v>28.992259178101278</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>20.249310920661216</v>
+        <v>7.2139359134422278</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.115415475329609</v>
+        <v>21.318727241447519</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5111474401643932</v>
+        <v>28.909062362516309</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>13.982184486363217</v>
+        <v>-16.382628579882407</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.074088834825915</v>
+        <v>-48.562675034515813</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>36.115017640688933</v>
+        <v>12.76057738340792</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.967403423992323</v>
+        <v>-48.645122408819297</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>21.834263470977049</v>
+        <v>47.711074223004474</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.055687975682297</v>
+        <v>-37.869943749003369</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>22.86029087119573</v>
+        <v>32.946764969683471</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.093945710401982</v>
+        <v>21.292695700080969</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.224399616187338</v>
+        <v>-15.765621531235254</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.785243469897488</v>
+        <v>-37.855271571964032</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.386239674859176</v>
+        <v>30.864958334884946</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.4076709946139445</v>
+        <v>-2.2583544735650634</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.718269332127541</v>
+        <v>14.697975348157186</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2124697739265429</v>
+        <v>4.7538576170947664</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.964454519882082</v>
+        <v>9.1491644996102508</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.708787188745799</v>
+        <v>-20.176806184030937</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.460616795038071</v>
+        <v>-23.312209964047881</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4346210519707014</v>
+        <v>-2.8520651213275059</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.837449213840713</v>
+        <v>25.54356026560643</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.421432030398847</v>
+        <v>11.639162656391669</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.906871482126952</v>
+        <v>28.218087150013218</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>13.014569115122221</v>
+        <v>-38.918738693382494</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>27.537440342978897</v>
+        <v>49.947282562508093</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>43.932284032657151</v>
+        <v>30.828273971408635</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.774790429983405</v>
+        <v>-12.932453395180879</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0657889273925321</v>
+        <v>43.931155990430355</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>37.368334349784476</v>
+        <v>18.724428107863389</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7866712507496629</v>
+        <v>14.264860939765214</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>48.960703115976713</v>
+        <v>-33.525260947504606</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>27.355464792686078</v>
+        <v>26.288492300329708</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.842350892338274</v>
+        <v>-22.230526531099791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19440" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="645" yWindow="1170" windowWidth="19440" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I38" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,15 +3205,15 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <f>G39-B4</f>
+        <f t="shared" ref="L39:N41" si="14">G39-B4</f>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>H39-C4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>I39-D4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3247,15 +3247,15 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <f>G40-B5</f>
+        <f t="shared" si="14"/>
         <v>5.3290705182007514E-15</v>
       </c>
       <c r="M40">
-        <f>H40-C5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>I40-D5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3289,15 +3289,15 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <f>G41-B6</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>H41-C6</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>I41-D6</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59:Q63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5028,7 +5028,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G10"/>
+      <selection activeCell="A6" sqref="A6:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,1681 +5036,1681 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100 - 50</f>
-        <v>-39.004009778680036</v>
+        <v>-32.017957105628454</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*100 - 50</f>
-        <v>49.319059856121754</v>
+        <v>-16.356310302563024</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.083340032310648</v>
+        <v>15.039470173136237</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.339913960502209</v>
+        <v>-0.56790416957989009</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.263872472775077</v>
+        <v>10.485756363553897</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.151266480333362</v>
+        <v>-23.16205360706277</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.295453297910008</v>
+        <v>-37.979228359771945</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.706125895239957</v>
+        <v>1.7013164565330428</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.27784647883351</v>
+        <v>-39.517593011916254</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.733321804177365</v>
+        <v>11.658939281259507</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J40" ca="1" si="1">RAND()*100 - 50</f>
-        <v>29.756629914529569</v>
+        <v>-6.156815627545754</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.821365331449915</v>
+        <v>-8.350647014532143</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.544419374744336</v>
+        <v>-21.768163154057728</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>36.296415582952875</v>
+        <v>-1.7387884070633106</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.219634203210639</v>
+        <v>0.11760788490717999</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>31.969631835648968</v>
+        <v>0.95875638809766173</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4566781244463343</v>
+        <v>-7.5395223824008326</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>31.926683756625337</v>
+        <v>16.057040046431013</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.027286565800566</v>
+        <v>-40.187927337244105</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.489958815719163</v>
+        <v>-12.820656365983041</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.817289403516462</v>
+        <v>11.340264945989851</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.357715252772465</v>
+        <v>14.826621205143638</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5390377259736923</v>
+        <v>-2.1349383889034073</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.051004546369157</v>
+        <v>-33.583007504899477</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.16350094846154</v>
+        <v>-18.887578157416208</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.097342677934563</v>
+        <v>-7.6855214476333913</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.122009078202467</v>
+        <v>30.274001563890863</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.334455557969783</v>
+        <v>-47.042415823495645</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>43.036118655330114</v>
+        <v>-36.183413701684017</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.779210916610985</v>
+        <v>-1.5492053253700533</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5162339379740786</v>
+        <v>29.10655244001525</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.924802879623307</v>
+        <v>-14.822545295159827</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.998966910098339</v>
+        <v>16.600467477300967</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4906380594211086</v>
+        <v>26.422046413530708</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.010620840485139</v>
+        <v>-20.638389549416857</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8593228022242201</v>
+        <v>11.8391824281168</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>37.750711268958625</v>
+        <v>-4.9641671681479238</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>39.509924442606533</v>
+        <v>-45.683804364330342</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>41.288600141767319</v>
+        <v>-29.25920028151673</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.497918109052449</v>
+        <v>2.8035256482716235</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>44.85313245916528</v>
+        <v>26.002090824906304</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>20.555164886346901</v>
+        <v>45.580094326758228</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.806901322173495</v>
+        <v>48.180650861766765</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.742253748326831</v>
+        <v>36.185787441937464</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.336315807051072</v>
+        <v>-21.002441640725078</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.420511602914626</v>
+        <v>18.018213365576102</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>49.349515674313466</v>
+        <v>31.174331345682944</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.8658649592458261</v>
+        <v>11.863811530753253</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>22.696267278737565</v>
+        <v>-10.812548300262904</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39776755095245164</v>
+        <v>3.4952851928022142</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>21.507547413555955</v>
+        <v>-20.242272783235716</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>29.384391327598081</v>
+        <v>-31.088197587124668</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>29.726627970264445</v>
+        <v>-6.0496572151432204</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.28439789822357</v>
+        <v>-17.968468708317218</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>44.545876301428635</v>
+        <v>-3.5648575636792472</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.464421487784051</v>
+        <v>34.533692912105138</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>48.464966387506678</v>
+        <v>2.9275659141698185</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>32.279290264149267</v>
+        <v>-26.342670450343284</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.164430898518397</v>
+        <v>41.683402753158205</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>25.775692909195058</v>
+        <v>16.573141282842556</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.871008945649038</v>
+        <v>-20.511020096359832</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.649893673347677</v>
+        <v>-39.322042351290264</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>49.420335628414847</v>
+        <v>37.498173116773941</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.598058391246067</v>
+        <v>-8.7756325245227345</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4505652494752823</v>
+        <v>47.049317380596861</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.185898722026195</v>
+        <v>-41.025151535527094</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6017212085219157</v>
+        <v>17.489624676928244</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9090900275386105</v>
+        <v>-45.816350146324616</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.77056673978467</v>
+        <v>41.265278022748134</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9235218027251548</v>
+        <v>46.620172660868064</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>47.817036045674854</v>
+        <v>20.054060984087499</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.453754186288233</v>
+        <v>38.049941384828188</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>47.881221176065964</v>
+        <v>-19.047081289899204</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6119061617252584</v>
+        <v>-7.6908891386819676</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>20.549100771544573</v>
+        <v>46.846800861583972</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.74292021311571</v>
+        <v>-15.301836214105023</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.455921135975508</v>
+        <v>17.430523714444661</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.115482299488349</v>
+        <v>-47.585485400755886</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.60249074943529</v>
+        <v>-11.210121698392342</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0450930385207684</v>
+        <v>9.5650957824518912</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>28.113856568037463</v>
+        <v>-17.79108918093393</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>37.911704649799631</v>
+        <v>-22.259153276475907</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.534683779736284</v>
+        <v>-1.8955756560190906</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.518138963570628</v>
+        <v>-19.316691352331151</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.262243032411469</v>
+        <v>10.070893507634892</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>19.364558939941517</v>
+        <v>0.59333013027175241</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>49.345206729934858</v>
+        <v>25.650194344199392</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.574116092067104</v>
+        <v>10.562408153849091</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.922950671825333</v>
+        <v>-48.831093889513021</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>26.883122967975865</v>
+        <v>17.589584722668818</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7116451658892302</v>
+        <v>-0.1537844730494129</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.804822957052572</v>
+        <v>-47.338415813136422</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>29.08858937679139</v>
+        <v>-34.097471959339401</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>41.122309887092939</v>
+        <v>6.9800362067364503</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.070522154989128</v>
+        <v>-37.391547925435454</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>31.585712800327286</v>
+        <v>38.206608931495651</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.017482056766212</v>
+        <v>-20.372821895549663</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>22.26148504173409</v>
+        <v>9.6486909324992354</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.299501378994865</v>
+        <v>-20.721972565695047</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>40.341883629191216</v>
+        <v>-17.281129503769201</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.338555068640531</v>
+        <v>-27.968210681277494</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1268718703845622</v>
+        <v>-18.137553872973267</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.327812223132874</v>
+        <v>43.268137138095923</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>32.87353052670548</v>
+        <v>30.512076666266921</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>37.211550754338134</v>
+        <v>44.454210310406523</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>29.868250692320743</v>
+        <v>-43.639123102094878</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.050486087123858</v>
+        <v>-29.300543153201218</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.585202339576412</v>
+        <v>4.1689228418782847</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8309730612489474</v>
+        <v>1.3065475153423591</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>46.786722588169951</v>
+        <v>30.596029456224286</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.39007581743029</v>
+        <v>-25.798370600077071</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8565762786918754</v>
+        <v>-30.489405928995261</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>31.322625291466082</v>
+        <v>-35.392283370408421</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.848027463328521</v>
+        <v>36.213709850066948</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.9375644423248986</v>
+        <v>25.25851012245937</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.220168448084586</v>
+        <v>-31.538426689380138</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>22.247212597523529</v>
+        <v>-12.7448907282131</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.341246698870989</v>
+        <v>-27.212434306552268</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3009434104837183</v>
+        <v>7.4992377867978064</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2178767463759925E-2</v>
+        <v>-26.942857770906503</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>48.372205391337417</v>
+        <v>-31.753307136450271</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>38.7343711550579</v>
+        <v>40.046698099886129</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>22.575785018215811</v>
+        <v>-27.68783968582953</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.813292857216418</v>
+        <v>-10.663446966539183</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>18.419716481440759</v>
+        <v>-44.589010121881977</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81375946033887914</v>
+        <v>10.718461487338097</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>35.313474795829521</v>
+        <v>4.4300926745932756</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.615128672367241</v>
+        <v>49.479033981069392</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.643328275038542</v>
+        <v>-19.379157708868021</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.031967688824043</v>
+        <v>44.546178399332973</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>40.771847294766303</v>
+        <v>-45.92678943681603</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9034462594360946</v>
+        <v>39.769685973137769</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.641265102188527</v>
+        <v>44.384409610787216</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>26.694959204761275</v>
+        <v>27.666505791574792</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>34.413159390179487</v>
+        <v>-15.892318119227724</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>15.272836765082033</v>
+        <v>43.719960657005913</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>49.335351976465716</v>
+        <v>-28.393947208517602</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>19.204016614644033</v>
+        <v>19.356704383255547</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8182113312694952</v>
+        <v>2.9935766573466651</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.376634854764092</v>
+        <v>24.059439715408331</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.024474833301198</v>
+        <v>-2.0983461083998165</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.815340082275128</v>
+        <v>21.499702077769001</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.868484569950724</v>
+        <v>37.631511306726679</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.904054997589832</v>
+        <v>19.714692991558934</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.9300550285697042</v>
+        <v>2.2676033181457598</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.528346013149921</v>
+        <v>10.371099694336415</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.461364941717221</v>
+        <v>18.286807494329437</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.398953054458385</v>
+        <v>-15.056598786211708</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.751513859695244</v>
+        <v>10.987355659892664</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.312846133378983</v>
+        <v>14.510968277275524</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>31.545435737030274</v>
+        <v>0.34008817638792976</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>18.557124830347448</v>
+        <v>-33.218125978448221</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>44.202642891725759</v>
+        <v>4.1089916677379179</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1659434913816611</v>
+        <v>-11.925773673225549</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8340904960030713</v>
+        <v>-34.667412892464455</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>14.897096793030101</v>
+        <v>-25.686409578077217</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.192464793706741</v>
+        <v>12.801644150284453</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.452605456691593</v>
+        <v>17.291326569380416</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9671203308532057</v>
+        <v>-29.681854749218939</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.582716736351642</v>
+        <v>-24.065444138877989</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0581778904590919</v>
+        <v>47.231378238113493</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1555853585021509</v>
+        <v>-25.692039833687485</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>23.738291888892277</v>
+        <v>-46.639303979783072</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.604189841511676</v>
+        <v>14.195165251279178</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.026278829971005</v>
+        <v>6.0824657873301291</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>18.066050711703014</v>
+        <v>19.985949062206672</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.796616724516003</v>
+        <v>-38.328098518295974</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>35.626239571842447</v>
+        <v>-30.525541264117983</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>15.474644277293422</v>
+        <v>-1.3836371813144268</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>21.761678515842121</v>
+        <v>-43.287880832431583</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.346647824105681</v>
+        <v>-6.3421152684135862</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>20.365721442879277</v>
+        <v>-7.1248291312714116</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.649261787610854</v>
+        <v>15.827539786641722</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.333556618164167</v>
+        <v>-39.251670839416398</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4692109372806001</v>
+        <v>33.962042833201394</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.947763116012219</v>
+        <v>-23.814800194130225</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>19.041547232129631</v>
+        <v>0.6241422294953054</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.582828062711421</v>
+        <v>1.6606536335193738</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>20.436076543610255</v>
+        <v>45.46577925730918</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>45.793190725781486</v>
+        <v>39.102473123295411</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.949176655078908</v>
+        <v>-4.5720207481679154E-2</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.856948677218973</v>
+        <v>12.165622537097654</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>11.01068009885401</v>
+        <v>23.99634238381941</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.128747262837429</v>
+        <v>-1.1081441426348349</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>45.612896398473922</v>
+        <v>48.604717565913973</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2102076964731552</v>
+        <v>-46.446595696553516</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.998199057486406</v>
+        <v>-37.167234755473658</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1180946602778832</v>
+        <v>-20.911765978351969</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>28.480804587384654</v>
+        <v>-19.86082631489743</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>19.707712033561762</v>
+        <v>-18.965854891017909</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.386528952453606</v>
+        <v>-48.731044620850852</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>26.69873764506201</v>
+        <v>18.685659547298144</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>40.5050081990981</v>
+        <v>-25.423133119576846</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>39.807140150681676</v>
+        <v>-24.390472982133637</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13895083614726644</v>
+        <v>-17.478734079647118</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>43.27790459564541</v>
+        <v>37.231096093632075</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.407879328542805</v>
+        <v>45.953846019183686</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.999329026439149</v>
+        <v>-21.261060100453733</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.518120720259432</v>
+        <v>18.539023138430665</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>31.359638535404457</v>
+        <v>45.49888847578552</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.479310773972575</v>
+        <v>17.20985290766005</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>35.470837062769959</v>
+        <v>-29.421482576558432</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.894545989626451</v>
+        <v>-23.329073998642258</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.795023376462311</v>
+        <v>-12.527616885283976</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>29.063270520582336</v>
+        <v>35.274797588644603</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>23.014724582770256</v>
+        <v>35.330779102284041</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.546488562627417</v>
+        <v>-37.570785630080174</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.305948806101796</v>
+        <v>8.6441931094581648</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.580354324626835</v>
+        <v>-24.402828120969609</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.539585132944211</v>
+        <v>48.301245650881313</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>27.852559031455115</v>
+        <v>39.513891929982179</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42710004266499624</v>
+        <v>43.551152220507632</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.278643405838395</v>
+        <v>26.271263332772506</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>39.036156424841693</v>
+        <v>11.557468507753221</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.702844583112359</v>
+        <v>26.137195420230299</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>46.492705731483525</v>
+        <v>-9.4641515863578931</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>45.427065849424437</v>
+        <v>-20.460343636453992</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.588890695057458</v>
+        <v>-33.988617792554436</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>14.148476478495013</v>
+        <v>-15.824793921297243</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>33.627161285930455</v>
+        <v>28.730679703864908</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>49.87853799835456</v>
+        <v>-6.3275264805516684</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2644307734073479</v>
+        <v>-3.8782566188435368</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>49.510604490356542</v>
+        <v>28.656523824209302</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3123968201330456</v>
+        <v>-1.6212248334916666</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>40.227663272025069</v>
+        <v>20.611646829343215</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>34.390876596504128</v>
+        <v>25.492941030576034</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>17.803552154356325</v>
+        <v>47.368278023989234</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>25.483993871992936</v>
+        <v>1.5214035543715596</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.22100090557019</v>
+        <v>-22.423444056860109</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>29.94239732292084</v>
+        <v>-4.8939878950511115</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>31.603228902086897</v>
+        <v>-10.740031135886049</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.701608023294774</v>
+        <v>32.526711823007332</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2192607150324264</v>
+        <v>2.6950946310598596</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>30.500017895036862</v>
+        <v>11.413352852693336</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.055534839804594</v>
+        <v>-5.8273361998839448</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.560727292063703</v>
+        <v>17.85657297989647</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.696840559415598</v>
+        <v>-0.51718778751735783</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.80135700122263</v>
+        <v>-16.905591292824326</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>22.683864898636187</v>
+        <v>5.1949690256540819</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.691165235278582</v>
+        <v>45.449327047780812</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>11.199962093150241</v>
+        <v>34.069088000134869</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>24.304760686053257</v>
+        <v>47.729801514990612</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.90171079410153254</v>
+        <v>5.9945232013278371</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>17.911303886681068</v>
+        <v>-38.593930519610112</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>47.77663801370305</v>
+        <v>40.039120604232039</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>28.391880227498845</v>
+        <v>31.208612957311402</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.376534358723973</v>
+        <v>31.365728511561642</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>49.745982316600461</v>
+        <v>37.083788651299344</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>15.891525963599136</v>
+        <v>-43.307547995629449</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.12937534607633</v>
+        <v>45.724731954996997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.166060071003525</v>
+        <v>49.333954680399756</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.737879870850648</v>
+        <v>-24.757161641898595</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>15.682411308280891</v>
+        <v>-3.6848347470689689</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>15.814757389717187</v>
+        <v>-43.059470302800683</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.088732648788614</v>
+        <v>-21.793187532770585</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.632166281292221</v>
+        <v>9.2522645886048522</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.830662427752181</v>
+        <v>26.163893033215388</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.846656065522772</v>
+        <v>11.542667170096024</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.269213331160508</v>
+        <v>-31.897057357519486</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>17.035459421513593</v>
+        <v>-21.652585410318771</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.240692398538414</v>
+        <v>-1.417839747603999</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>22.203670702116199</v>
+        <v>18.026765234134729</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>11.831687419844087</v>
+        <v>3.005829528286128</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>36.849748946937439</v>
+        <v>19.821668467400187</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.055668850781061</v>
+        <v>35.164224049094145</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.656493270460686</v>
+        <v>39.741399589269946</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>2.605830401665358</v>
+        <v>21.777654492524562</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>37.031527195334519</v>
+        <v>15.421485298563582</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.860267390104688</v>
+        <v>-29.361967061264881</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.369737548370622</v>
+        <v>48.68777038900393</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.856653650792147</v>
+        <v>-21.65016190436987</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.318506145419722</v>
+        <v>-46.616224827022194</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>39.285768481055698</v>
+        <v>18.691484702910685</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>49.308682985572545</v>
+        <v>-20.388348162297365</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>9.094670035811113</v>
+        <v>-10.565726775249274</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>32.506247689942754</v>
+        <v>44.179929258077891</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>32.811619211238536</v>
+        <v>-19.106469756135059</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6046130184879246</v>
+        <v>-42.420075737862597</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6672373254764992</v>
+        <v>-47.453934514887798</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.607174665842479</v>
+        <v>8.90080613444362</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>29.252728784967914</v>
+        <v>15.22438106896368</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>26.160803402892896</v>
+        <v>-6.2079137220440543</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.398614199935984</v>
+        <v>-31.542239361633719</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>46.57926935000242</v>
+        <v>36.575139472489155</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6432208535782848</v>
+        <v>-18.401591066900412</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.591911493959245</v>
+        <v>-6.9866878601899529</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>44.584713475531785</v>
+        <v>-9.3144780425351712</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6967693826390544</v>
+        <v>11.619334322151097</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.561825456561891</v>
+        <v>-38.576166237549344</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.25594072086507</v>
+        <v>-4.1056110555773415</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.077034148164952</v>
+        <v>42.87862608217992</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9186915959757016</v>
+        <v>2.7709378542749548</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6986401954666022</v>
+        <v>-25.732093779359943</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3881088258159622</v>
+        <v>19.256874042239502</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5134433186211282</v>
+        <v>-1.9907927340554465E-3</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>25.748723509065712</v>
+        <v>36.325798879800757</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>37.540624503144073</v>
+        <v>-12.18397158568677</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>35.500604796081419</v>
+        <v>29.714700171219746</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.126052233031164</v>
+        <v>-2.0703636666770748</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.994181447542218</v>
+        <v>-23.560970481225276</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1013035678154282</v>
+        <v>-14.879505503828319</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.88970808214718</v>
+        <v>46.432574706641361</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>16.165106029493785</v>
+        <v>49.306383855023554</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.773119669322849</v>
+        <v>-30.235271197432191</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>19.043521143406934</v>
+        <v>37.863563293642144</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>26.833764793560491</v>
+        <v>-40.360259240335481</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>31.315417473798007</v>
+        <v>-25.522423946052097</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>47.943811244703198</v>
+        <v>-23.819090653529116</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.184737376291363</v>
+        <v>13.486648085861965</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>32.185725609077465</v>
+        <v>5.8126501052093502</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.335538271330186</v>
+        <v>-49.313085155699731</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.133877626725251</v>
+        <v>30.011373833171234</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>32.25196072012173</v>
+        <v>39.676726174041548</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0773488152889499</v>
+        <v>-41.803606402382677</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>14.172307194290539</v>
+        <v>43.582151673123462</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.435937701902677</v>
+        <v>-42.152866101816244</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>10.616765795428073</v>
+        <v>26.552723887598404</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>12.549948942481926</v>
+        <v>42.987488456299999</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>43.409082671284295</v>
+        <v>-5.2833493024418559</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5593312464738602</v>
+        <v>1.9171748525611321</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.621501989795661</v>
+        <v>46.447644338476039</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2319645221037234</v>
+        <v>12.328705475134136</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>25.642575497550638</v>
+        <v>6.4039169086664174</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3338634303904584</v>
+        <v>28.645343921357252</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>32.319176500018415</v>
+        <v>-35.044665236084725</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.259679366008378</v>
+        <v>28.992734348089684</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>30.958063680818455</v>
+        <v>-40.358715449986306</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.718864087875563</v>
+        <v>-2.7891235394494487</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>17.976810399194179</v>
+        <v>8.1049748855754231</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.762885974596109</v>
+        <v>-46.644795079943016</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.983753562682224</v>
+        <v>32.536179433984572</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.746829629715275</v>
+        <v>-7.8239037596328131</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>13.933133875936846</v>
+        <v>-27.590813115858083</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>13.707854238048689</v>
+        <v>-0.42274730142564465</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.39018971723344</v>
+        <v>-28.838120646661725</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0844709276834621</v>
+        <v>23.511513425056791</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>46.480555897938686</v>
+        <v>42.584546362175374</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>12.7924080436133</v>
+        <v>25.509916537034769</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
-        <v>13.530377523395266</v>
+        <v>-6.4969475145555649</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.173528961485314</v>
+        <v>2.547867648645763E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.211908369060318</v>
+        <v>0.63563107210289616</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>9.447556924270117</v>
+        <v>-6.2990742891871818</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.293251810903726</v>
+        <v>38.705567928153542</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7982489285259646</v>
+        <v>26.14300307250916</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.825720110521075</v>
+        <v>21.252792171877076</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.55633666294883</v>
+        <v>39.676356990863184</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>20.494230737461265</v>
+        <v>-24.634939848861315</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>30.956200638881157</v>
+        <v>24.788912821906422</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>24.372083724986709</v>
+        <v>19.157112305917167</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.101700913827372</v>
+        <v>2.7281945068526099</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8627153578255999</v>
+        <v>-14.979314277751079</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0571143924739488</v>
+        <v>36.315678055612693</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.942964586463845</v>
+        <v>-30.205346370867559</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.376157010067878</v>
+        <v>24.910569582216155</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>27.1848669628952</v>
+        <v>-38.283660287278153</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.098648263589396</v>
+        <v>-45.788130077703983</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>32.693112333821531</v>
+        <v>41.58382947538044</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.716195949796003</v>
+        <v>23.758234132582245</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.323409295772038</v>
+        <v>-36.805681681823486</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>40.79295835628443</v>
+        <v>33.083050576772564</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>39.844400876329772</v>
+        <v>34.738820644571959</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.725826324717076</v>
+        <v>42.129112019205621</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>23.317024556311836</v>
+        <v>24.099182377611555</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>21.860807277589402</v>
+        <v>43.623803069897264</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9176220945754494</v>
+        <v>26.869197903937348</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>28.992259178101278</v>
+        <v>19.086453185368384</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2139359134422278</v>
+        <v>-34.616962221489878</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>21.318727241447519</v>
+        <v>35.381656880404435</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>28.909062362516309</v>
+        <v>2.5737417611648041</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.382628579882407</v>
+        <v>-30.174178776077099</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.562675034515813</v>
+        <v>39.64386820634283</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>12.76057738340792</v>
+        <v>-46.26649189669196</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.645122408819297</v>
+        <v>-40.884208687906124</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>47.711074223004474</v>
+        <v>25.077274668611111</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.869943749003369</v>
+        <v>-10.155546036642647</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>32.946764969683471</v>
+        <v>24.654033946239878</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>21.292695700080969</v>
+        <v>-13.945588966869103</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.765621531235254</v>
+        <v>-43.610437546140304</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.855271571964032</v>
+        <v>26.267808164697584</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>30.864958334884946</v>
+        <v>0.56479743650790226</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2583544735650634</v>
+        <v>-37.594514730863835</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>14.697975348157186</v>
+        <v>-16.656887819584739</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7538576170947664</v>
+        <v>-7.2366555002411843</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1491644996102508</v>
+        <v>-46.134104436983506</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.176806184030937</v>
+        <v>-1.0533660632727759</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.312209964047881</v>
+        <v>-42.401608025750406</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8520651213275059</v>
+        <v>-44.634901931155191</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>25.54356026560643</v>
+        <v>3.0776066226053302</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>11.639162656391669</v>
+        <v>-8.1209754118956354</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>28.218087150013218</v>
+        <v>-35.627421990125505</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.918738693382494</v>
+        <v>-43.993329177544595</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>49.947282562508093</v>
+        <v>-11.837401783727429</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>30.828273971408635</v>
+        <v>7.4496312453721103</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.932453395180879</v>
+        <v>34.063028524126779</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>43.931155990430355</v>
+        <v>40.14240846285206</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>18.724428107863389</v>
+        <v>-16.895904992324418</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>14.264860939765214</v>
+        <v>-12.364562126441058</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.525260947504606</v>
+        <v>1.7697854199628793</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>26.288492300329708</v>
+        <v>-48.852786257278339</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.230526531099791</v>
+        <v>-34.587521017578169</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1170" windowWidth="19440" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="1380" yWindow="315" windowWidth="19440" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,1681 +5036,1681 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100 - 50</f>
-        <v>-32.017957105628454</v>
+        <v>6.5308187140285767</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*100 - 50</f>
-        <v>-16.356310302563024</v>
+        <v>24.697395354171036</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.039470173136237</v>
+        <v>-32.874743069179488</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56790416957989009</v>
+        <v>23.230291414415234</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.485756363553897</v>
+        <v>-14.312820155846332</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.16205360706277</v>
+        <v>-38.312170033566019</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.979228359771945</v>
+        <v>15.880190144271751</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7013164565330428</v>
+        <v>-44.390974817425331</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.517593011916254</v>
+        <v>-7.2932387641562642</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.658939281259507</v>
+        <v>-25.407127347066105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J40" ca="1" si="1">RAND()*100 - 50</f>
-        <v>-6.156815627545754</v>
+        <v>-48.193368679841321</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.350647014532143</v>
+        <v>-45.825703940203432</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.768163154057728</v>
+        <v>7.4702352605919842</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7387884070633106</v>
+        <v>44.00771420099791</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11760788490717999</v>
+        <v>-7.7390000578850291</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95875638809766173</v>
+        <v>-41.268250512513227</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.5395223824008326</v>
+        <v>3.739133905620541</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.057040046431013</v>
+        <v>-9.3242515613374479</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.187927337244105</v>
+        <v>-21.452965684795501</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.820656365983041</v>
+        <v>-37.057369335369401</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>11.340264945989851</v>
+        <v>-18.091786839199074</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.826621205143638</v>
+        <v>-1.0551225343962045</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1349383889034073</v>
+        <v>-40.717472764820172</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.583007504899477</v>
+        <v>-14.43408493503977</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.887578157416208</v>
+        <v>43.230596063597062</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6855214476333913</v>
+        <v>3.0092743486428546</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.274001563890863</v>
+        <v>-36.022529565584527</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.042415823495645</v>
+        <v>30.109063581369412</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.183413701684017</v>
+        <v>-17.617565530731461</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5492053253700533</v>
+        <v>-49.681348912925259</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>29.10655244001525</v>
+        <v>29.616309985280651</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.822545295159827</v>
+        <v>-38.552179315492552</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>16.600467477300967</v>
+        <v>31.197033020566494</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>26.422046413530708</v>
+        <v>-48.79358556680161</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.638389549416857</v>
+        <v>-13.018090140211157</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.8391824281168</v>
+        <v>-0.12702951210591351</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9641671681479238</v>
+        <v>-44.523547210182379</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.683804364330342</v>
+        <v>-11.214096132185958</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.25920028151673</v>
+        <v>-8.5055135726236131</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8035256482716235</v>
+        <v>-45.467217073808321</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>26.002090824906304</v>
+        <v>31.788856834961905</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>45.580094326758228</v>
+        <v>30.535188328599887</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>48.180650861766765</v>
+        <v>3.8098771008124857</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.185787441937464</v>
+        <v>28.033213807887563</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.002441640725078</v>
+        <v>24.875351332401848</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>18.018213365576102</v>
+        <v>-42.94573127313592</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>31.174331345682944</v>
+        <v>39.864942443652097</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.863811530753253</v>
+        <v>39.125487161157764</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.812548300262904</v>
+        <v>-40.742108379613249</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4952851928022142</v>
+        <v>39.612876649857213</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.242272783235716</v>
+        <v>9.7035930610135708</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.088197587124668</v>
+        <v>43.883589795002237</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0496572151432204</v>
+        <v>15.139264130752977</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.968468708317218</v>
+        <v>39.523614636013491</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5648575636792472</v>
+        <v>-7.5856965380950072</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>34.533692912105138</v>
+        <v>0.7116091714627899</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9275659141698185</v>
+        <v>-49.493573205770872</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.342670450343284</v>
+        <v>37.340694175266847</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>41.683402753158205</v>
+        <v>39.340428716045508</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.573141282842556</v>
+        <v>-45.792869397765166</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.511020096359832</v>
+        <v>42.854540822404303</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.322042351290264</v>
+        <v>48.232552297185052</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>37.498173116773941</v>
+        <v>26.031204537814688</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.7756325245227345</v>
+        <v>22.834394473028269</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>47.049317380596861</v>
+        <v>-44.084114099748263</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.025151535527094</v>
+        <v>-16.84565166150297</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>17.489624676928244</v>
+        <v>-1.2166077506723809</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.816350146324616</v>
+        <v>-35.813684247243351</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>41.265278022748134</v>
+        <v>-20.813618805722058</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>46.620172660868064</v>
+        <v>-8.0226687831302286</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>20.054060984087499</v>
+        <v>11.10082530654806</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>38.049941384828188</v>
+        <v>20.185205156343088</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.047081289899204</v>
+        <v>16.314131758745148</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6908891386819676</v>
+        <v>-1.2973007555830733</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>46.846800861583972</v>
+        <v>46.752843980962211</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.301836214105023</v>
+        <v>10.728486749942412</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>17.430523714444661</v>
+        <v>-23.905707216817451</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.585485400755886</v>
+        <v>0.47941248077589904</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.210121698392342</v>
+        <v>-18.020022036898631</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5650957824518912</v>
+        <v>-45.445852372223804</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.79108918093393</v>
+        <v>24.307816611191328</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.259153276475907</v>
+        <v>43.470564455151163</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8955756560190906</v>
+        <v>-34.641906934750168</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.316691352331151</v>
+        <v>3.2627529198241163</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.070893507634892</v>
+        <v>2.9082101825948854</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59333013027175241</v>
+        <v>-43.430513542432912</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>25.650194344199392</v>
+        <v>0.55572784389192975</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.562408153849091</v>
+        <v>-31.601092425872647</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.831093889513021</v>
+        <v>-12.887024627602052</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>17.589584722668818</v>
+        <v>39.498078701152878</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1537844730494129</v>
+        <v>19.657430631968737</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.338415813136422</v>
+        <v>47.582102315936964</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.097471959339401</v>
+        <v>41.721417722843896</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9800362067364503</v>
+        <v>47.536155507360263</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.391547925435454</v>
+        <v>2.850818290553768</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>38.206608931495651</v>
+        <v>-30.018793789492161</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.372821895549663</v>
+        <v>-22.560417742397888</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6486909324992354</v>
+        <v>-15.233400545857293</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.721972565695047</v>
+        <v>-38.824674073128996</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.281129503769201</v>
+        <v>16.529526924931631</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.968210681277494</v>
+        <v>-45.104012842245112</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.137553872973267</v>
+        <v>-39.991255892786391</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>43.268137138095923</v>
+        <v>-35.665640721425788</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.512076666266921</v>
+        <v>12.361591396155049</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>44.454210310406523</v>
+        <v>-22.733592298061509</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.639123102094878</v>
+        <v>27.787635165312565</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.300543153201218</v>
+        <v>48.258208175864411</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1689228418782847</v>
+        <v>-16.752899907698428</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3065475153423591</v>
+        <v>6.9869929710339349</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.596029456224286</v>
+        <v>27.899381791048654</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.798370600077071</v>
+        <v>45.004775493105086</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.489405928995261</v>
+        <v>-1.8377929655869707E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.392283370408421</v>
+        <v>-2.1252963797758682</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>36.213709850066948</v>
+        <v>-21.462434602287917</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>25.25851012245937</v>
+        <v>19.239114310615719</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.538426689380138</v>
+        <v>5.460951169442275</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.7448907282131</v>
+        <v>2.6013488021372595</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.212434306552268</v>
+        <v>33.44546440658624</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4992377867978064</v>
+        <v>-27.452643761458717</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.942857770906503</v>
+        <v>29.25724820143941</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.753307136450271</v>
+        <v>33.342606650897949</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>40.046698099886129</v>
+        <v>6.2734747341268928</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.68783968582953</v>
+        <v>42.124718430744451</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.663446966539183</v>
+        <v>44.602410291666473</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.589010121881977</v>
+        <v>9.2506760250595264</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.718461487338097</v>
+        <v>-6.059783994604615</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4300926745932756</v>
+        <v>-24.834256890700047</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>49.479033981069392</v>
+        <v>-21.063674472965232</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.379157708868021</v>
+        <v>-40.543667671219517</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>44.546178399332973</v>
+        <v>-12.724672448142684</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.92678943681603</v>
+        <v>-6.7193933052396417</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>39.769685973137769</v>
+        <v>-41.836682950463711</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>44.384409610787216</v>
+        <v>-2.2553312130737666</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>27.666505791574792</v>
+        <v>-49.255331929612481</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.892318119227724</v>
+        <v>-27.221024191746913</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>43.719960657005913</v>
+        <v>43.609392535617658</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.393947208517602</v>
+        <v>-19.837313839660776</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>19.356704383255547</v>
+        <v>1.8430643877575505</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9935766573466651</v>
+        <v>13.987024828673043</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>24.059439715408331</v>
+        <v>-31.445975585379159</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0983461083998165</v>
+        <v>2.2784529366962403</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>21.499702077769001</v>
+        <v>39.945038369856306</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>37.631511306726679</v>
+        <v>-20.578972630650682</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>19.714692991558934</v>
+        <v>39.682839786481026</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2676033181457598</v>
+        <v>4.7908698191370362</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.371099694336415</v>
+        <v>19.784841046446388</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>18.286807494329437</v>
+        <v>-27.027564712762508</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.056598786211708</v>
+        <v>7.4419964149514044</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.987355659892664</v>
+        <v>33.224757978417927</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.510968277275524</v>
+        <v>20.406417909853843</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34008817638792976</v>
+        <v>-15.376333045410831</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.218125978448221</v>
+        <v>30.049360327116574</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1089916677379179</v>
+        <v>-41.457482852297403</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.925773673225549</v>
+        <v>-11.542227776680228</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.667412892464455</v>
+        <v>45.764593773339953</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.686409578077217</v>
+        <v>-15.681913526745895</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.801644150284453</v>
+        <v>16.195668087182042</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>17.291326569380416</v>
+        <v>25.079395428151102</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.681854749218939</v>
+        <v>3.9014588230001621</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.065444138877989</v>
+        <v>36.46351713027677</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>47.231378238113493</v>
+        <v>-22.196705972334307</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.692039833687485</v>
+        <v>-8.0163394555744176</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.639303979783072</v>
+        <v>26.387370796321179</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.195165251279178</v>
+        <v>-16.191296783226029</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0824657873301291</v>
+        <v>7.8796166327656323</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>19.985949062206672</v>
+        <v>-27.020483693699038</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.328098518295974</v>
+        <v>-5.5042037909942962</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.525541264117983</v>
+        <v>-34.814820866023481</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3836371813144268</v>
+        <v>29.387028282747849</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.287880832431583</v>
+        <v>45.355508595535227</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3421152684135862</v>
+        <v>-24.748150366637322</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1248291312714116</v>
+        <v>-14.97495432837561</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>15.827539786641722</v>
+        <v>-18.72838991633019</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.251670839416398</v>
+        <v>4.1177367382574346</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>33.962042833201394</v>
+        <v>-2.581546395593989</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.814800194130225</v>
+        <v>25.255177063319124</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6241422294953054</v>
+        <v>-47.841568155992007</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6606536335193738</v>
+        <v>-11.147885177042561</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>45.46577925730918</v>
+        <v>45.622696516444776</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.102473123295411</v>
+        <v>47.026670315515588</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5720207481679154E-2</v>
+        <v>24.731124998557902</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>12.165622537097654</v>
+        <v>23.818007324927137</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>23.99634238381941</v>
+        <v>-49.537742954409168</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1081441426348349</v>
+        <v>34.012417754202687</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>48.604717565913973</v>
+        <v>49.063663975753258</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.446595696553516</v>
+        <v>-49.446305759216436</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.167234755473658</v>
+        <v>3.3019930039988736</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.911765978351969</v>
+        <v>-19.609234120645326</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.86082631489743</v>
+        <v>-2.1588034157596212</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.965854891017909</v>
+        <v>37.148800091803807</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.731044620850852</v>
+        <v>47.401598676076318</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>18.685659547298144</v>
+        <v>11.441478307486364</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.423133119576846</v>
+        <v>-18.426794102548214</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.390472982133637</v>
+        <v>12.755520457204327</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.478734079647118</v>
+        <v>-28.449204057300459</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>37.231096093632075</v>
+        <v>45.4085535407945</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>45.953846019183686</v>
+        <v>49.935309907870845</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.261060100453733</v>
+        <v>-12.035146473185975</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>18.539023138430665</v>
+        <v>5.4795335774826199</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>45.49888847578552</v>
+        <v>-42.512110319370677</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>17.20985290766005</v>
+        <v>-1.9644278098473791</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.421482576558432</v>
+        <v>-39.375843576463339</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.329073998642258</v>
+        <v>-36.249954973850365</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.527616885283976</v>
+        <v>-15.645893800709331</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>35.274797588644603</v>
+        <v>25.44596018222623</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>35.330779102284041</v>
+        <v>15.33323848484433</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.570785630080174</v>
+        <v>4.9741420709760931</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6441931094581648</v>
+        <v>36.412977261924169</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.402828120969609</v>
+        <v>-31.758862775647923</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>48.301245650881313</v>
+        <v>-39.842429447358143</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>39.513891929982179</v>
+        <v>15.050795418016676</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>43.551152220507632</v>
+        <v>3.0045229738703725</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>26.271263332772506</v>
+        <v>-37.218904240472604</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.557468507753221</v>
+        <v>-31.721428797472839</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>26.137195420230299</v>
+        <v>-43.613774151650631</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4641515863578931</v>
+        <v>43.940353778696391</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.460343636453992</v>
+        <v>-12.56357562020127</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.988617792554436</v>
+        <v>18.789615097856952</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.824793921297243</v>
+        <v>10.739318503327965</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>28.730679703864908</v>
+        <v>18.000360596660883</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3275264805516684</v>
+        <v>40.840644772545758</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8782566188435368</v>
+        <v>-44.997552638580132</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>28.656523824209302</v>
+        <v>-41.282503581220787</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6212248334916666</v>
+        <v>-27.356349324118213</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>20.611646829343215</v>
+        <v>38.914293997154175</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>25.492941030576034</v>
+        <v>-15.573679490199332</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>47.368278023989234</v>
+        <v>19.418273760442943</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5214035543715596</v>
+        <v>-47.630314283349605</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.423444056860109</v>
+        <v>2.2828259589701787</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8939878950511115</v>
+        <v>-0.59944943032603959</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.740031135886049</v>
+        <v>-34.581483591478005</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>32.526711823007332</v>
+        <v>32.204750749491708</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6950946310598596</v>
+        <v>-36.511062981315959</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>11.413352852693336</v>
+        <v>-23.81859607586938</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8273361998839448</v>
+        <v>32.292019719937585</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>17.85657297989647</v>
+        <v>22.949011343734384</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51718778751735783</v>
+        <v>4.8966093624936207</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.905591292824326</v>
+        <v>-40.049535047952268</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1949690256540819</v>
+        <v>-26.515476278764282</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>45.449327047780812</v>
+        <v>1.5601070330465205</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>34.069088000134869</v>
+        <v>12.168063889733951</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>47.729801514990612</v>
+        <v>11.603780850517772</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9945232013278371</v>
+        <v>-48.108938366261853</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.593930519610112</v>
+        <v>-21.949066758006442</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>40.039120604232039</v>
+        <v>-0.37361444080394079</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>31.208612957311402</v>
+        <v>28.332114645373963</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>31.365728511561642</v>
+        <v>26.453802072989092</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>37.083788651299344</v>
+        <v>28.757100175378639</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.307547995629449</v>
+        <v>2.4057730934908008</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>45.724731954996997</v>
+        <v>-6.7905149327821235</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>49.333954680399756</v>
+        <v>6.6650263710855029E-2</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.757161641898595</v>
+        <v>-42.835135072965244</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6848347470689689</v>
+        <v>35.916110125153793</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.059470302800683</v>
+        <v>36.024727763890667</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.793187532770585</v>
+        <v>-23.26564249572144</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2522645886048522</v>
+        <v>21.96740749411525</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>26.163893033215388</v>
+        <v>48.275940342632722</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>11.542667170096024</v>
+        <v>35.946303529706768</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.897057357519486</v>
+        <v>41.681045094980277</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.652585410318771</v>
+        <v>-29.545240094185509</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.417839747603999</v>
+        <v>35.294747490140878</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>18.026765234134729</v>
+        <v>-24.352558607147369</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.005829528286128</v>
+        <v>36.638192892808831</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>19.821668467400187</v>
+        <v>-48.164963116243364</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>35.164224049094145</v>
+        <v>-15.131929636184537</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>39.741399589269946</v>
+        <v>31.942246035237119</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>21.777654492524562</v>
+        <v>12.687354426447804</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>15.421485298563582</v>
+        <v>22.276876643819776</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.361967061264881</v>
+        <v>24.707565135875655</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>48.68777038900393</v>
+        <v>-26.263475873991805</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.65016190436987</v>
+        <v>37.29020262357416</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.616224827022194</v>
+        <v>3.02795585069574</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>18.691484702910685</v>
+        <v>-20.028994409901845</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.388348162297365</v>
+        <v>-25.937583426923162</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.565726775249274</v>
+        <v>-9.3416154781448029</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>44.179929258077891</v>
+        <v>11.768239112580872</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.106469756135059</v>
+        <v>12.241772208297355</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.420075737862597</v>
+        <v>-13.483547877589274</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.453934514887798</v>
+        <v>27.221399366174964</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>8.90080613444362</v>
+        <v>-47.904574234335108</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>15.22438106896368</v>
+        <v>7.7619199268201271</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2079137220440543</v>
+        <v>32.340357400953891</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.542239361633719</v>
+        <v>47.990229319126371</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>36.575139472489155</v>
+        <v>43.031396408330863</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.401591066900412</v>
+        <v>-9.5203800032041315</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9866878601899529</v>
+        <v>-2.4508250865577494</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3144780425351712</v>
+        <v>36.347080676221736</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>11.619334322151097</v>
+        <v>-19.032724875208718</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.576166237549344</v>
+        <v>-48.587255143976634</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1056110555773415</v>
+        <v>-24.544140296144345</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>42.87862608217992</v>
+        <v>-13.912668523718288</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7709378542749548</v>
+        <v>-33.500035143933275</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.732093779359943</v>
+        <v>9.094024814723511</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>19.256874042239502</v>
+        <v>-45.673942031257496</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9907927340554465E-3</v>
+        <v>14.391702940007178</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>36.325798879800757</v>
+        <v>-9.6784032001037446</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.18397158568677</v>
+        <v>-19.738974796691966</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>29.714700171219746</v>
+        <v>45.110336452951813</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0703636666770748</v>
+        <v>-37.598809319221445</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.560970481225276</v>
+        <v>15.158837266207797</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.879505503828319</v>
+        <v>19.993065497022073</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>46.432574706641361</v>
+        <v>24.44940625391034</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>49.306383855023554</v>
+        <v>38.702955649504389</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.235271197432191</v>
+        <v>-23.558100826474281</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>37.863563293642144</v>
+        <v>7.1998733688478183</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.360259240335481</v>
+        <v>-25.041661728865105</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.522423946052097</v>
+        <v>27.513543303603711</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.819090653529116</v>
+        <v>15.139199614722699</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.486648085861965</v>
+        <v>-29.677066039659529</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8126501052093502</v>
+        <v>38.635241416517388</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.313085155699731</v>
+        <v>-49.887396683341713</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>30.011373833171234</v>
+        <v>-27.793378808196501</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>39.676726174041548</v>
+        <v>45.714622405601901</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.803606402382677</v>
+        <v>-31.791483474446004</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>43.582151673123462</v>
+        <v>6.6277805130188909</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.152866101816244</v>
+        <v>-44.079205430191763</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>26.552723887598404</v>
+        <v>-1.6479857402080214</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>42.987488456299999</v>
+        <v>24.9915868255097</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2833493024418559</v>
+        <v>-37.159763274234649</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9171748525611321</v>
+        <v>-18.745121250966001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>46.447644338476039</v>
+        <v>35.855667282580754</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>12.328705475134136</v>
+        <v>-13.395887855911695</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4039169086664174</v>
+        <v>13.370162010766727</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>28.645343921357252</v>
+        <v>-3.2764278101390119</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.044665236084725</v>
+        <v>-6.0308283290308111</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>28.992734348089684</v>
+        <v>-33.89728087704561</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.358715449986306</v>
+        <v>47.116998117067993</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7891235394494487</v>
+        <v>-26.584085332425467</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1049748855754231</v>
+        <v>13.573864780395326</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.644795079943016</v>
+        <v>-43.664646998503677</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>32.536179433984572</v>
+        <v>-24.301294251907468</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8239037596328131</v>
+        <v>23.674632369506554</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.590813115858083</v>
+        <v>6.003375346672172</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42274730142564465</v>
+        <v>11.118679587638404</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.838120646661725</v>
+        <v>44.15435100910446</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>23.511513425056791</v>
+        <v>31.853802933640949</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>42.584546362175374</v>
+        <v>-40.1264840227729</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>25.509916537034769</v>
+        <v>0.26604922012587195</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4969475145555649</v>
+        <v>-45.379149245629549</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>2.547867648645763E-2</v>
+        <v>-43.637162139736404</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63563107210289616</v>
+        <v>-13.390708171745572</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2990742891871818</v>
+        <v>10.121994804225068</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>38.705567928153542</v>
+        <v>-38.58770513213878</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>26.14300307250916</v>
+        <v>-33.923452330646057</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>21.252792171877076</v>
+        <v>42.294968508865182</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>39.676356990863184</v>
+        <v>-8.1965731264967232</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.634939848861315</v>
+        <v>13.149932012238772</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>24.788912821906422</v>
+        <v>-19.644288292675792</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.157112305917167</v>
+        <v>48.348938092723685</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7281945068526099</v>
+        <v>6.6366371440119565</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.979314277751079</v>
+        <v>18.603715216010769</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>36.315678055612693</v>
+        <v>-28.201693366973302</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.205346370867559</v>
+        <v>24.864952501479081</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>24.910569582216155</v>
+        <v>24.073058483884651</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.283660287278153</v>
+        <v>-28.539457662143477</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.788130077703983</v>
+        <v>-48.562929288074585</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>41.58382947538044</v>
+        <v>21.485383412218411</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>23.758234132582245</v>
+        <v>6.6516125704450673</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.805681681823486</v>
+        <v>-15.513790890739983</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>33.083050576772564</v>
+        <v>-20.376932661270995</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>34.738820644571959</v>
+        <v>40.059392559833739</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>42.129112019205621</v>
+        <v>8.8374135080361285</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>24.099182377611555</v>
+        <v>15.135193870376312</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>43.623803069897264</v>
+        <v>-45.078356426782427</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>26.869197903937348</v>
+        <v>45.142832959250086</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>19.086453185368384</v>
+        <v>36.774209823270027</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.616962221489878</v>
+        <v>-19.090579050959789</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>35.381656880404435</v>
+        <v>-10.664725419132537</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5737417611648041</v>
+        <v>14.454093817840075</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.174178776077099</v>
+        <v>43.937483230471329</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>39.64386820634283</v>
+        <v>-10.808576602961075</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.26649189669196</v>
+        <v>36.62219232572015</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.884208687906124</v>
+        <v>20.408582712342465</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>25.077274668611111</v>
+        <v>-31.606879332303063</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.155546036642647</v>
+        <v>20.042337110846134</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>24.654033946239878</v>
+        <v>-20.851976542224659</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.945588966869103</v>
+        <v>27.130956604211448</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.610437546140304</v>
+        <v>-10.236729660202251</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>26.267808164697584</v>
+        <v>-4.5691561560716636</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56479743650790226</v>
+        <v>26.348211753956662</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.594514730863835</v>
+        <v>-27.276658995936074</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.656887819584739</v>
+        <v>-13.003128971615098</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.2366555002411843</v>
+        <v>9.3791431551018789</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.134104436983506</v>
+        <v>-30.983705489030033</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0533660632727759</v>
+        <v>-43.55869434607682</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.401608025750406</v>
+        <v>-27.251987689704571</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.634901931155191</v>
+        <v>33.177081643827151</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0776066226053302</v>
+        <v>12.108251674188409</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.1209754118956354</v>
+        <v>43.01955529805997</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.627421990125505</v>
+        <v>-21.379322259371335</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.993329177544595</v>
+        <v>3.1626388137992549</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.837401783727429</v>
+        <v>22.97810480827755</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4496312453721103</v>
+        <v>-25.406562634717954</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>34.063028524126779</v>
+        <v>46.792451188411505</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>40.14240846285206</v>
+        <v>-3.4832804310140375</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.895904992324418</v>
+        <v>-35.077610994250463</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.364562126441058</v>
+        <v>12.470486693070946</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7697854199628793</v>
+        <v>1.1831806001627712</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.852786257278339</v>
+        <v>45.774786710150522</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.587521017578169</v>
+        <v>0.56439479780036095</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/HessenbergDecompTest.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="315" windowWidth="19440" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="1380" yWindow="315" windowWidth="19440" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
     <sheet name="5x5" sheetId="2" r:id="rId2"/>
     <sheet name="4x4 with Q" sheetId="4" r:id="rId3"/>
     <sheet name="5x5 with Q" sheetId="5" r:id="rId4"/>
-    <sheet name="rand" sheetId="3" r:id="rId5"/>
+    <sheet name="Upper 6x6" sheetId="6" r:id="rId5"/>
+    <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>#1</t>
   </si>
@@ -3310,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -5025,10 +5026,158 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.6190877049779431</v>
+      </c>
+      <c r="B3">
+        <v>7.9564137046193011</v>
+      </c>
+      <c r="C3">
+        <v>8.9235810629035299</v>
+      </c>
+      <c r="D3">
+        <v>-15.057956397587034</v>
+      </c>
+      <c r="E3">
+        <v>-13.112542273576686</v>
+      </c>
+      <c r="F3">
+        <v>-30.712282290276928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-34.209154007100182</v>
+      </c>
+      <c r="C4">
+        <v>-48.126511318230335</v>
+      </c>
+      <c r="D4">
+        <v>-23.895809145865055</v>
+      </c>
+      <c r="E4">
+        <v>-25.16080676873186</v>
+      </c>
+      <c r="F4">
+        <v>-29.105822009365991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>48.320482995844301</v>
+      </c>
+      <c r="D5">
+        <v>48.092301256978786</v>
+      </c>
+      <c r="E5">
+        <v>34.643891592879356</v>
+      </c>
+      <c r="F5">
+        <v>-1.1730048329242493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>42.734491651905785</v>
+      </c>
+      <c r="E6">
+        <v>-45.236437319642235</v>
+      </c>
+      <c r="F6">
+        <v>41.122614932793823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.4867817620455597</v>
+      </c>
+      <c r="F7">
+        <v>-37.845824774521105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-0.91857681711885419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J8"/>
+      <selection activeCell="B12" sqref="B12:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,1681 +5185,1681 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100 - 50</f>
-        <v>6.5308187140285767</v>
+        <v>1.2625371659748836</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*100 - 50</f>
-        <v>24.697395354171036</v>
+        <v>35.481120874535364</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.874743069179488</v>
+        <v>3.4814695098464483</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.230291414415234</v>
+        <v>-38.329788932798579</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.312820155846332</v>
+        <v>-6.349167212794427</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.312170033566019</v>
+        <v>22.987826852351972</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.880190144271751</v>
+        <v>-20.43203117585367</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.390974817425331</v>
+        <v>-11.879463944190761</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.2932387641562642</v>
+        <v>-10.736305801405024</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.407127347066105</v>
+        <v>40.12943878176462</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J40" ca="1" si="1">RAND()*100 - 50</f>
-        <v>-48.193368679841321</v>
+        <v>-2.4941701589360008</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.825703940203432</v>
+        <v>25.952532336769536</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4702352605919842</v>
+        <v>0.40620519143330824</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>44.00771420099791</v>
+        <v>32.099215015850589</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.7390000578850291</v>
+        <v>40.930314005901124</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.268250512513227</v>
+        <v>-16.896628249337795</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.739133905620541</v>
+        <v>-43.949084098958437</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.3242515613374479</v>
+        <v>38.571521363342328</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.452965684795501</v>
+        <v>-36.929664516308705</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.057369335369401</v>
+        <v>34.111045805114315</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.091786839199074</v>
+        <v>-13.077262234056562</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0551225343962045</v>
+        <v>-9.9870975152859813</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.717472764820172</v>
+        <v>28.751780170329781</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.43408493503977</v>
+        <v>25.793227733781151</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>43.230596063597062</v>
+        <v>-26.443382379762337</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0092743486428546</v>
+        <v>-27.362537101898866</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.022529565584527</v>
+        <v>49.224048433967127</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.109063581369412</v>
+        <v>-25.692802381248015</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.617565530731461</v>
+        <v>1.1450514232322604</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.681348912925259</v>
+        <v>5.7836850969603546</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>29.616309985280651</v>
+        <v>8.7351655965881676</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.552179315492552</v>
+        <v>-23.878460274984047</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>31.197033020566494</v>
+        <v>14.253115711864922</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.79358556680161</v>
+        <v>41.888287875056207</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.018090140211157</v>
+        <v>-33.175853599575511</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12702951210591351</v>
+        <v>15.221834727002786</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.523547210182379</v>
+        <v>-5.407925030595365</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.214096132185958</v>
+        <v>-21.290893252027242</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5055135726236131</v>
+        <v>20.364096306178553</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.467217073808321</v>
+        <v>22.739439084701544</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>31.788856834961905</v>
+        <v>27.741811731845615</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.535188328599887</v>
+        <v>-29.953124187537238</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8098771008124857</v>
+        <v>35.992900005814349</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.033213807887563</v>
+        <v>20.15757088058929</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>24.875351332401848</v>
+        <v>0.60312043329743403</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.94573127313592</v>
+        <v>29.270660614463353</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.864942443652097</v>
+        <v>30.281217218178824</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.125487161157764</v>
+        <v>-16.962232174528047</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.742108379613249</v>
+        <v>-17.017435781813028</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.612876649857213</v>
+        <v>-33.086336270064351</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7035930610135708</v>
+        <v>-11.619172723495517</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>43.883589795002237</v>
+        <v>35.828044783443474</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.139264130752977</v>
+        <v>43.873741430710893</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>39.523614636013491</v>
+        <v>-44.351126076420577</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.5856965380950072</v>
+        <v>-45.8466955093187</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7116091714627899</v>
+        <v>-30.551739528379496</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.493573205770872</v>
+        <v>26.807125641194119</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>37.340694175266847</v>
+        <v>-7.0399713470824281</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>39.340428716045508</v>
+        <v>-28.098268202812136</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.792869397765166</v>
+        <v>-33.550936225740173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>42.854540822404303</v>
+        <v>-34.745989880619554</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>48.232552297185052</v>
+        <v>43.570120931385858</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>26.031204537814688</v>
+        <v>0.79088788063872073</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>22.834394473028269</v>
+        <v>9.3580421850777498</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.084114099748263</v>
+        <v>42.324432284824738</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.84565166150297</v>
+        <v>26.163693102575735</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2166077506723809</v>
+        <v>-29.225962847446418</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.813684247243351</v>
+        <v>-27.846747963027894</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.813618805722058</v>
+        <v>-44.954243466944654</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.0226687831302286</v>
+        <v>39.088330176158067</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>11.10082530654806</v>
+        <v>-48.786534394106241</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>20.185205156343088</v>
+        <v>45.282312258850141</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16.314131758745148</v>
+        <v>-44.169420058899668</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2973007555830733</v>
+        <v>17.616688534330166</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>46.752843980962211</v>
+        <v>-49.289890021769104</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.728486749942412</v>
+        <v>-17.733855766100682</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.905707216817451</v>
+        <v>-45.402425792560685</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47941248077589904</v>
+        <v>46.346333597104447</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.020022036898631</v>
+        <v>19.050276458485826</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.445852372223804</v>
+        <v>0.14724562403743136</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>24.307816611191328</v>
+        <v>11.31250017613521</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>43.470564455151163</v>
+        <v>21.308516561737122</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.641906934750168</v>
+        <v>-48.449300401804841</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2627529198241163</v>
+        <v>-8.5660480181508731</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9082101825948854</v>
+        <v>18.803318543891123</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.430513542432912</v>
+        <v>-47.555469764486169</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55572784389192975</v>
+        <v>1.0391053915023392</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.601092425872647</v>
+        <v>-11.798883025744409</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.887024627602052</v>
+        <v>-49.996600907336727</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>39.498078701152878</v>
+        <v>2.6288450486161707</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>19.657430631968737</v>
+        <v>-30.680147555136649</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>47.582102315936964</v>
+        <v>23.563525455660397</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>41.721417722843896</v>
+        <v>-23.065706815378697</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>47.536155507360263</v>
+        <v>18.018477499575496</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.850818290553768</v>
+        <v>-20.261948337600934</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.018793789492161</v>
+        <v>17.699509670436825</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.560417742397888</v>
+        <v>2.536177614918401</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.233400545857293</v>
+        <v>-34.861297074516372</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.824674073128996</v>
+        <v>-25.008897578740687</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>16.529526924931631</v>
+        <v>-6.6080681337200247</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.104012842245112</v>
+        <v>31.47452741723319</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.991255892786391</v>
+        <v>-42.671534114861146</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.665640721425788</v>
+        <v>43.5034134292533</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.361591396155049</v>
+        <v>-7.0171850699459384</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.733592298061509</v>
+        <v>35.54773732685554</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>27.787635165312565</v>
+        <v>-37.768990672897132</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>48.258208175864411</v>
+        <v>5.8018768783345323</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.752899907698428</v>
+        <v>-42.535663340587192</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9869929710339349</v>
+        <v>-40.359976453771274</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>27.899381791048654</v>
+        <v>35.530806264718123</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>45.004775493105086</v>
+        <v>-31.459436007089469</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8377929655869707E-2</v>
+        <v>31.172704515575276</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1252963797758682</v>
+        <v>-11.076575302902405</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.462434602287917</v>
+        <v>17.810018743702642</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.239114310615719</v>
+        <v>3.2583823348681591</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.460951169442275</v>
+        <v>-8.8110754420551629</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6013488021372595</v>
+        <v>16.667425542036227</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>33.44546440658624</v>
+        <v>-13.678325533338601</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.452643761458717</v>
+        <v>-44.879789717649203</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>29.25724820143941</v>
+        <v>10.659252961396945</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>33.342606650897949</v>
+        <v>-45.336896280290453</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2734747341268928</v>
+        <v>-18.756048722551199</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>42.124718430744451</v>
+        <v>-14.328069778742403</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>44.602410291666473</v>
+        <v>-18.790450995059771</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2506760250595264</v>
+        <v>-47.585687352371885</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.059783994604615</v>
+        <v>-4.2864981191387699</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.834256890700047</v>
+        <v>25.022887705924148</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.063674472965232</v>
+        <v>27.331569994280073</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.543667671219517</v>
+        <v>45.350692618958959</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.724672448142684</v>
+        <v>-10.69002798502077</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7193933052396417</v>
+        <v>-10.049618448875151</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.836682950463711</v>
+        <v>-10.643151548090913</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2553312130737666</v>
+        <v>35.937117170030589</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.255331929612481</v>
+        <v>-35.387660031859966</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.221024191746913</v>
+        <v>-47.860334301037611</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>43.609392535617658</v>
+        <v>-35.301185001723908</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.837313839660776</v>
+        <v>27.66544594751754</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8430643877575505</v>
+        <v>1.0773905226781011</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>13.987024828673043</v>
+        <v>-13.777389167198294</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.445975585379159</v>
+        <v>-26.097492138931379</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2784529366962403</v>
+        <v>-2.2322895291764979</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>39.945038369856306</v>
+        <v>25.80800289572089</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.578972630650682</v>
+        <v>20.191529776829213</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>39.682839786481026</v>
+        <v>23.33325249206915</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7908698191370362</v>
+        <v>-5.7289204414076593</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>19.784841046446388</v>
+        <v>-46.244714387413744</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.027564712762508</v>
+        <v>29.112340407126496</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4419964149514044</v>
+        <v>20.54831666059583</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>33.224757978417927</v>
+        <v>23.882483031809102</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>20.406417909853843</v>
+        <v>-2.5370602422183666</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.376333045410831</v>
+        <v>-31.591609995236215</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>30.049360327116574</v>
+        <v>28.225910322829279</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.457482852297403</v>
+        <v>-7.6800444838023409</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.542227776680228</v>
+        <v>5.7182418139573556</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>45.764593773339953</v>
+        <v>-10.370161831059654</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.681913526745895</v>
+        <v>-48.896385229025974</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>16.195668087182042</v>
+        <v>-43.236673201917618</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>25.079395428151102</v>
+        <v>-44.970686704513874</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9014588230001621</v>
+        <v>-15.009573439985701</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>36.46351713027677</v>
+        <v>25.316254291376879</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.196705972334307</v>
+        <v>-9.6903511189637044</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0163394555744176</v>
+        <v>-28.341051413194819</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>26.387370796321179</v>
+        <v>46.970468154344431</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.191296783226029</v>
+        <v>-40.037571285465511</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8796166327656323</v>
+        <v>49.953726263318359</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.020483693699038</v>
+        <v>-25.768658964832667</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5042037909942962</v>
+        <v>32.427695715619578</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.814820866023481</v>
+        <v>2.0221204967243551</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.387028282747849</v>
+        <v>32.634857821566527</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>45.355508595535227</v>
+        <v>-32.4811371225736</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.748150366637322</v>
+        <v>-15.66269508843704</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.97495432837561</v>
+        <v>30.41365808626287</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.72838991633019</v>
+        <v>20.63266671880757</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1177367382574346</v>
+        <v>-43.623927034902763</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.581546395593989</v>
+        <v>-15.728529950918556</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>25.255177063319124</v>
+        <v>-20.422206037084166</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.841568155992007</v>
+        <v>-16.349675722187627</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.147885177042561</v>
+        <v>34.829936710559764</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>45.622696516444776</v>
+        <v>46.47862472097826</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>47.026670315515588</v>
+        <v>-39.166180197878077</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>24.731124998557902</v>
+        <v>27.525150847375897</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>23.818007324927137</v>
+        <v>-31.648522016203941</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.537742954409168</v>
+        <v>6.9474398782056639</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>34.012417754202687</v>
+        <v>-20.215720397757742</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>49.063663975753258</v>
+        <v>20.296485259002552</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.446305759216436</v>
+        <v>35.870907848315539</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3019930039988736</v>
+        <v>44.267005234411698</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.609234120645326</v>
+        <v>35.682569862217463</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1588034157596212</v>
+        <v>-6.8011068101802721</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>37.148800091803807</v>
+        <v>0.10663278186599712</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>47.401598676076318</v>
+        <v>11.747314957499711</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.441478307486364</v>
+        <v>-5.3681252677071711</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.426794102548214</v>
+        <v>48.547888856107164</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.755520457204327</v>
+        <v>19.015995911056976</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.449204057300459</v>
+        <v>-43.268504936372288</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>45.4085535407945</v>
+        <v>45.36360619103516</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>49.935309907870845</v>
+        <v>40.970174425445933</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.035146473185975</v>
+        <v>-16.230803981832388</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4795335774826199</v>
+        <v>-43.958754415831812</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.512110319370677</v>
+        <v>-23.794602170421697</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9644278098473791</v>
+        <v>-38.421202698826988</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.375843576463339</v>
+        <v>41.480525620653026</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.249954973850365</v>
+        <v>33.29892908746281</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.645893800709331</v>
+        <v>-10.817572802746412</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>25.44596018222623</v>
+        <v>6.2999124148136687</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>15.33323848484433</v>
+        <v>36.111031383105001</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9741420709760931</v>
+        <v>27.630180277099797</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>36.412977261924169</v>
+        <v>-43.988309157631178</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.758862775647923</v>
+        <v>39.703749996566842</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.842429447358143</v>
+        <v>25.413927479369235</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>15.050795418016676</v>
+        <v>9.7435164470623477</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0045229738703725</v>
+        <v>47.536556329609382</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.218904240472604</v>
+        <v>-41.009550962545696</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.721428797472839</v>
+        <v>40.610162177440145</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.613774151650631</v>
+        <v>-21.476132387611802</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>43.940353778696391</v>
+        <v>19.599880997707061</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.56357562020127</v>
+        <v>21.899540020242853</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.789615097856952</v>
+        <v>-36.95951596382082</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>10.739318503327965</v>
+        <v>-48.393489486159545</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.000360596660883</v>
+        <v>-1.1428583117858651</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>40.840644772545758</v>
+        <v>27.180299325025288</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.997552638580132</v>
+        <v>-19.468995174717186</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.282503581220787</v>
+        <v>11.190559319682556</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.356349324118213</v>
+        <v>-25.422289314720615</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>38.914293997154175</v>
+        <v>12.676146055769919</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.573679490199332</v>
+        <v>-12.847979862069344</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>19.418273760442943</v>
+        <v>-38.228082458963726</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.630314283349605</v>
+        <v>17.888547242473706</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2828259589701787</v>
+        <v>43.486752914722004</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59944943032603959</v>
+        <v>34.440515463941381</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.581483591478005</v>
+        <v>6.4796703687669464</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>32.204750749491708</v>
+        <v>-7.292695273942293</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.511062981315959</v>
+        <v>-32.403754023510089</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.81859607586938</v>
+        <v>-28.112680358845545</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>32.292019719937585</v>
+        <v>-49.988812260041158</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>22.949011343734384</v>
+        <v>-42.924422223504564</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8966093624936207</v>
+        <v>28.138508621923378</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.049535047952268</v>
+        <v>-15.529947852422175</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.515476278764282</v>
+        <v>-35.162374680842369</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5601070330465205</v>
+        <v>23.022162485352425</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>12.168063889733951</v>
+        <v>1.746271703096312</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>11.603780850517772</v>
+        <v>-42.854227795268031</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.108938366261853</v>
+        <v>-26.770158194052485</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.949066758006442</v>
+        <v>3.0221563024766169</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37361444080394079</v>
+        <v>-10.938250787194171</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>28.332114645373963</v>
+        <v>21.344263255731704</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>26.453802072989092</v>
+        <v>-32.715438695488004</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>28.757100175378639</v>
+        <v>43.823304715967311</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4057730934908008</v>
+        <v>-46.648163556438739</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7905149327821235</v>
+        <v>-35.036715934077534</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6650263710855029E-2</v>
+        <v>12.491535815108534</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.835135072965244</v>
+        <v>-41.518139020283229</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>35.916110125153793</v>
+        <v>-11.533835099033887</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>36.024727763890667</v>
+        <v>8.819983990543534E-2</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.26564249572144</v>
+        <v>-38.802928630092836</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>21.96740749411525</v>
+        <v>26.952836739348086</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>48.275940342632722</v>
+        <v>7.0328933508351028</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>35.946303529706768</v>
+        <v>6.1025017584888772</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>41.681045094980277</v>
+        <v>-18.852143821897492</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.545240094185509</v>
+        <v>-40.565901595132239</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>35.294747490140878</v>
+        <v>17.33646329011593</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.352558607147369</v>
+        <v>38.489940760716706</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>36.638192892808831</v>
+        <v>2.5632938012210431</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.164963116243364</v>
+        <v>18.128073534759935</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.131929636184537</v>
+        <v>9.5155840383679546</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>31.942246035237119</v>
+        <v>11.165245390365818</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>12.687354426447804</v>
+        <v>-44.945005831715214</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>22.276876643819776</v>
+        <v>-16.37332722544825</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>24.707565135875655</v>
+        <v>-19.801934701204427</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.263475873991805</v>
+        <v>2.5928704905216264</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>37.29020262357416</v>
+        <v>9.9182201760665052</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.02795585069574</v>
+        <v>43.113738573298477</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.028994409901845</v>
+        <v>7.066872336919829</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.937583426923162</v>
+        <v>-7.2900224223460199</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3416154781448029</v>
+        <v>-2.1240997948884086</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>11.768239112580872</v>
+        <v>-0.30862743645615609</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>12.241772208297355</v>
+        <v>38.517427241872056</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.483547877589274</v>
+        <v>-8.0639671749274768</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>27.221399366174964</v>
+        <v>-42.798689446564367</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.904574234335108</v>
+        <v>-44.98388815616876</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7619199268201271</v>
+        <v>13.541709984177174</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>32.340357400953891</v>
+        <v>42.715676682741403</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>47.990229319126371</v>
+        <v>-36.125980701712777</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>43.031396408330863</v>
+        <v>45.573298120628891</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5203800032041315</v>
+        <v>43.085462165580907</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4508250865577494</v>
+        <v>5.6744798558492349</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>36.347080676221736</v>
+        <v>-17.252176534887887</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.032724875208718</v>
+        <v>10.532598366087562</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.587255143976634</v>
+        <v>14.532172879147495</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.544140296144345</v>
+        <v>-43.463536461585306</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.912668523718288</v>
+        <v>-4.6203313130265968</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.500035143933275</v>
+        <v>9.9424413355998738</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.094024814723511</v>
+        <v>-20.872011463555474</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.673942031257496</v>
+        <v>-5.4243794761654556</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.391702940007178</v>
+        <v>33.176091044246121</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6784032001037446</v>
+        <v>-13.247510494564182</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.738974796691966</v>
+        <v>-41.972175609006037</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>45.110336452951813</v>
+        <v>0.56813400224352506</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.598809319221445</v>
+        <v>-11.158200754612814</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>15.158837266207797</v>
+        <v>11.072529533247291</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>19.993065497022073</v>
+        <v>28.532673349751704</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>24.44940625391034</v>
+        <v>-41.351874651601705</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>38.702955649504389</v>
+        <v>-23.735662393742828</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.558100826474281</v>
+        <v>47.061235058721138</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1998733688478183</v>
+        <v>-12.042744347393374</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.041661728865105</v>
+        <v>-0.79077310191424033</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>27.513543303603711</v>
+        <v>-17.521099963891253</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>15.139199614722699</v>
+        <v>-15.808809503660925</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.677066039659529</v>
+        <v>6.3757162881430531</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>38.635241416517388</v>
+        <v>-23.210482059460659</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.887396683341713</v>
+        <v>-49.673044982785733</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.793378808196501</v>
+        <v>25.515154713910746</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>45.714622405601901</v>
+        <v>-5.139014032825969</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.791483474446004</v>
+        <v>2.4926866134218031</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6277805130188909</v>
+        <v>12.419120153374493</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.079205430191763</v>
+        <v>21.369990521812795</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6479857402080214</v>
+        <v>24.799043207989016</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>24.9915868255097</v>
+        <v>49.692374726413604</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.159763274234649</v>
+        <v>-36.037744937948446</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.745121250966001</v>
+        <v>35.506239043837809</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>35.855667282580754</v>
+        <v>-21.200304636953181</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.395887855911695</v>
+        <v>-5.4637011704956961</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>13.370162010766727</v>
+        <v>31.005245714276626</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2764278101390119</v>
+        <v>22.811638195760395</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0308283290308111</v>
+        <v>-37.207191214383904</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.89728087704561</v>
+        <v>36.891200015037271</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>47.116998117067993</v>
+        <v>26.94461184504479</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.584085332425467</v>
+        <v>32.241696903499772</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>13.573864780395326</v>
+        <v>42.767406095310932</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.664646998503677</v>
+        <v>9.3860586252077951</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.301294251907468</v>
+        <v>-41.916087437549798</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>23.674632369506554</v>
+        <v>-22.925869118616415</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>6.003375346672172</v>
+        <v>-9.8539864835630624</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>11.118679587638404</v>
+        <v>20.903718395369907</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>44.15435100910446</v>
+        <v>34.891043055167941</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>31.853802933640949</v>
+        <v>-32.725745727132384</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.1264840227729</v>
+        <v>45.903105641563712</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26604922012587195</v>
+        <v>-35.458820745418564</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.379149245629549</v>
+        <v>42.074634100352299</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.637162139736404</v>
+        <v>-46.42362090812194</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.390708171745572</v>
+        <v>-38.033527167772228</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>10.121994804225068</v>
+        <v>37.188334939379502</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.58770513213878</v>
+        <v>49.036691823291633</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.923452330646057</v>
+        <v>-5.0702047014130827</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>42.294968508865182</v>
+        <v>32.139838662042749</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.1965731264967232</v>
+        <v>-18.89693915428693</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.149932012238772</v>
+        <v>-23.133900871971669</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.644288292675792</v>
+        <v>-27.789877607371693</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>48.348938092723685</v>
+        <v>-28.081924821018877</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6366371440119565</v>
+        <v>-37.479451611735847</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>18.603715216010769</v>
+        <v>-0.66578552153444548</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.201693366973302</v>
+        <v>14.677599213698898</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>24.864952501479081</v>
+        <v>-17.877304775356947</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>24.073058483884651</v>
+        <v>44.60059276721563</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.539457662143477</v>
+        <v>44.529126097985383</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.562929288074585</v>
+        <v>7.3101114796169426</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>21.485383412218411</v>
+        <v>-48.750326039354285</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6516125704450673</v>
+        <v>35.120744300487615</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.513790890739983</v>
+        <v>39.697102669094036</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.376932661270995</v>
+        <v>42.002001774211735</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>40.059392559833739</v>
+        <v>-15.307463567302705</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8374135080361285</v>
+        <v>8.4845253790162047</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>15.135193870376312</v>
+        <v>-37.726966558912899</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.078356426782427</v>
+        <v>43.278241170587251</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>45.142832959250086</v>
+        <v>32.66810241647697</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>36.774209823270027</v>
+        <v>-26.027790157149987</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.090579050959789</v>
+        <v>3.0084864649575138</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.664725419132537</v>
+        <v>28.322003523652683</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>14.454093817840075</v>
+        <v>-25.464872024336071</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>43.937483230471329</v>
+        <v>0.35237252897448457</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.808576602961075</v>
+        <v>-16.854121436831861</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>36.62219232572015</v>
+        <v>-37.437678949808728</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>20.408582712342465</v>
+        <v>19.758994371752607</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.606879332303063</v>
+        <v>13.973004720634954</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>20.042337110846134</v>
+        <v>-29.028016974203709</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.851976542224659</v>
+        <v>24.579321705236055</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>27.130956604211448</v>
+        <v>23.574322016538545</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.236729660202251</v>
+        <v>-10.08401221818346</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5691561560716636</v>
+        <v>29.455274714424647</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>26.348211753956662</v>
+        <v>22.153636432631345</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.276658995936074</v>
+        <v>-22.910791626602055</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.003128971615098</v>
+        <v>-30.174322097203856</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3791431551018789</v>
+        <v>39.282829577346945</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.983705489030033</v>
+        <v>-2.5492785593766669</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.55869434607682</v>
+        <v>-8.3058805898449961</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.251987689704571</v>
+        <v>-7.3192054249938607</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>33.177081643827151</v>
+        <v>18.05656049326798</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>12.108251674188409</v>
+        <v>-49.389919866068546</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>43.01955529805997</v>
+        <v>-41.802558825327623</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.379322259371335</v>
+        <v>45.379202148603696</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1626388137992549</v>
+        <v>-47.360168117768097</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>22.97810480827755</v>
+        <v>-4.0079900754159823</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.406562634717954</v>
+        <v>-7.6873098950929872</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>46.792451188411505</v>
+        <v>-9.0693560082431262</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4832804310140375</v>
+        <v>21.644819456583392</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.077610994250463</v>
+        <v>45.533536787861735</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>12.470486693070946</v>
+        <v>-4.0419090457085787</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1831806001627712</v>
+        <v>19.149676343276937</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>45.774786710150522</v>
+        <v>45.625889885059507</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56439479780036095</v>
+        <v>-24.195418736432384</v>
       </c>
     </row>
   </sheetData>
